--- a/Tableau_suivi_avancement.xlsx
+++ b/Tableau_suivi_avancement.xlsx
@@ -39,6 +39,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -48,6 +49,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 date de traitement du fichier (qu'il ait pu être finalisé ou pas)</t>
@@ -62,6 +64,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -71,6 +74,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 mettre ici un trigramme composé de la première lettre du prénom et les deux premières lettres du nom</t>
@@ -85,6 +89,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -94,6 +99,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 statut du fichier à la fin de la normalisation
@@ -110,6 +116,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -119,6 +126,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 - à remplir uniquement s'il y a un problème lié à la transcription du fichier dans le .xml qui impacte la normalisation
@@ -134,6 +142,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -143,6 +152,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 - à remplir pour tout problème/difficulté rencontré lors de la normalisation
@@ -158,6 +168,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -167,6 +178,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 décrire ici tout ce qui ne rentre pas dans l'une des catégories précédentes et qui vaut le coup d'être noté, notamment si vérification NOK</t>
@@ -181,6 +193,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -190,6 +203,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 date de traitement du fichier (qu'il ait pu être finalisé ou pas)</t>
@@ -204,6 +218,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -213,6 +228,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 mettre ici un trigramme composé de la première lettre du prénom et les deux premières lettres du nom</t>
@@ -227,6 +243,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -236,6 +253,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 statut du fichier à la fin de la vérification
@@ -252,6 +270,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -261,6 +280,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 écrire ici toute remarque relative à la vérification</t>
@@ -275,6 +295,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -284,6 +305,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 date de traitement du fichier (qu'il ait pu être finalisé ou pas)</t>
@@ -298,6 +320,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -307,6 +330,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 mettre ici un trigramme composé de la première lettre du prénom et les deux premières lettres du nom</t>
@@ -321,6 +345,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -330,6 +355,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 statut du fichier à la fin de la normalisation
@@ -346,6 +372,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -355,6 +382,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 - à remplir pour tout problème/difficulté rencontré lors de la normalisation
@@ -370,6 +398,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Julian Ozdowski:
 </t>
@@ -379,6 +408,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SOZ:
 décrire ici tout ce qui ne rentre pas dans l'une des catégories précédentes et qui vaut le coup d'être noté, notamment si vérification NOK</t>
@@ -390,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5218" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="1042">
   <si>
     <t xml:space="preserve">Niveau</t>
   </si>
@@ -1213,6 +1243,9 @@
   </si>
   <si>
     <t xml:space="preserve">CO-4e-2018-LSPJJRC-D1-R24-V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fautes ortho : « courrut » et « rentrèrent »</t>
   </si>
   <si>
     <t xml:space="preserve">histoire de famille flippante </t>
@@ -2118,6 +2151,7 @@
         <color rgb="FF202020"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">la phrase dans la marge a mal été insérée dans le récit ("</t>
     </r>
@@ -2128,6 +2162,7 @@
         <color rgb="FF202020"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Elle dit . Il descneda suivi de sa qu elle habitait dans cette maison depuis longtemps petite amie.</t>
     </r>
@@ -2137,6 +2172,7 @@
         <color rgb="FF202020"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">" plutôt que "</t>
     </r>
@@ -2147,6 +2183,7 @@
         <color rgb="FF202020"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Elle dit qu elle habitait dans cette maison depuis longtemps . Il descenda suivi de sa petite amie.</t>
     </r>
@@ -2156,6 +2193,7 @@
         <color rgb="FF202020"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">" dans le scan).</t>
     </r>
@@ -3590,6 +3628,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3612,18 +3651,21 @@
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3631,6 +3673,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3638,23 +3681,27 @@
       <color rgb="FF26282A"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF202020"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -3662,11 +3709,13 @@
       <color rgb="FF202020"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="27">
@@ -4996,12 +5045,12 @@
   </sheetPr>
   <dimension ref="A1:AMJ591"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S70" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="Q113" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
-      <selection pane="bottomRight" activeCell="U89" activeCellId="0" sqref="U89"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="R126" activeCellId="0" sqref="R126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7956,7 +8005,7 @@
         <v>29</v>
       </c>
       <c r="T59" s="74" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="U59" s="74" t="s">
         <v>150</v>
@@ -9071,7 +9120,7 @@
         <v>29</v>
       </c>
       <c r="T83" s="157" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="U83" s="157" t="s">
         <v>210</v>
@@ -10128,10 +10177,13 @@
         <v>29</v>
       </c>
       <c r="T105" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="U105" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="V105" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W105" s="8" t="s">
         <v>261</v>
@@ -10143,7 +10195,7 @@
         <v>206</v>
       </c>
       <c r="C106" s="163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D106" s="164" t="n">
         <v>44042</v>
@@ -10180,7 +10232,7 @@
         <v>40</v>
       </c>
       <c r="U106" s="168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AMI106" s="171"/>
       <c r="AMJ106" s="171"/>
@@ -10191,7 +10243,7 @@
         <v>206</v>
       </c>
       <c r="C107" s="163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D107" s="164" t="n">
         <v>44042</v>
@@ -10228,13 +10280,13 @@
         <v>40</v>
       </c>
       <c r="U107" s="168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="V107" s="168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W107" s="168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AMI107" s="171"/>
       <c r="AMJ107" s="171"/>
@@ -10245,7 +10297,7 @@
         <v>206</v>
       </c>
       <c r="C108" s="69" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D108" s="75" t="n">
         <v>44042</v>
@@ -10282,13 +10334,13 @@
         <v>22</v>
       </c>
       <c r="U108" s="74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V108" s="74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W108" s="76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AMI108" s="77"/>
       <c r="AMJ108" s="77"/>
@@ -10299,7 +10351,7 @@
         <v>206</v>
       </c>
       <c r="C109" s="84" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D109" s="3" t="n">
         <v>44042</v>
@@ -10332,7 +10384,7 @@
         <v>22</v>
       </c>
       <c r="W109" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10341,7 +10393,7 @@
         <v>206</v>
       </c>
       <c r="C110" s="84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D110" s="3" t="n">
         <v>44042</v>
@@ -10374,7 +10426,7 @@
         <v>22</v>
       </c>
       <c r="W110" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10414,13 +10466,13 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D113" s="3" t="n">
         <v>44040</v>
@@ -10447,10 +10499,10 @@
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="130"/>
       <c r="B114" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C114" s="115" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D114" s="3" t="n">
         <v>44040</v>
@@ -10477,10 +10529,10 @@
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="130"/>
       <c r="B115" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C115" s="115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D115" s="3" t="n">
         <v>44040</v>
@@ -10507,10 +10559,10 @@
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="130"/>
       <c r="B116" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C116" s="115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D116" s="3" t="n">
         <v>44040</v>
@@ -10583,13 +10635,13 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="181" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B119" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C119" s="84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D119" s="3" t="n">
         <v>43972</v>
@@ -10625,10 +10677,10 @@
     <row r="120" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="117"/>
       <c r="B120" s="55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D120" s="61" t="n">
         <v>43972</v>
@@ -10676,10 +10728,10 @@
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="181"/>
       <c r="B121" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C121" s="84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D121" s="3" t="n">
         <v>43972</v>
@@ -10715,10 +10767,10 @@
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="181"/>
       <c r="B122" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C122" s="84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D122" s="3" t="n">
         <v>43972</v>
@@ -10752,10 +10804,10 @@
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="181"/>
       <c r="B123" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C123" s="84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D123" s="3" t="n">
         <v>43972</v>
@@ -10791,10 +10843,10 @@
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="181"/>
       <c r="B124" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C124" s="84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D124" s="3" t="n">
         <v>43972</v>
@@ -10830,10 +10882,10 @@
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="181"/>
       <c r="B125" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C125" s="84" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>43972</v>
@@ -10869,10 +10921,10 @@
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="181"/>
       <c r="B126" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C126" s="84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>43972</v>
@@ -10908,10 +10960,10 @@
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="181"/>
       <c r="B127" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C127" s="84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>43972</v>
@@ -10947,10 +10999,10 @@
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="181"/>
       <c r="B128" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C128" s="84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D128" s="3" t="n">
         <v>43972</v>
@@ -10984,10 +11036,10 @@
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="181"/>
       <c r="B129" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C129" s="84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D129" s="3" t="n">
         <v>43972</v>
@@ -11025,10 +11077,10 @@
     <row r="130" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="117"/>
       <c r="B130" s="55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C130" s="55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D130" s="61" t="n">
         <v>43972</v>
@@ -11066,7 +11118,7 @@
         <v>97</v>
       </c>
       <c r="U130" s="60" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AMI130" s="63"/>
       <c r="AMJ130" s="63"/>
@@ -11074,10 +11126,10 @@
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="181"/>
       <c r="B131" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C131" s="84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D131" s="3" t="n">
         <v>43972</v>
@@ -11111,10 +11163,10 @@
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="181"/>
       <c r="B132" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C132" s="84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D132" s="3" t="n">
         <v>43972</v>
@@ -11148,10 +11200,10 @@
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="181"/>
       <c r="B133" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C133" s="84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D133" s="3" t="n">
         <v>43972</v>
@@ -11189,10 +11241,10 @@
     <row r="134" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="117"/>
       <c r="B134" s="55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C134" s="55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D134" s="61" t="n">
         <v>43972</v>
@@ -11230,7 +11282,7 @@
         <v>97</v>
       </c>
       <c r="U134" s="60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AMI134" s="63"/>
       <c r="AMJ134" s="63"/>
@@ -11238,10 +11290,10 @@
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="181"/>
       <c r="B135" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C135" s="84" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>43972</v>
@@ -11277,10 +11329,10 @@
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="181"/>
       <c r="B136" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C136" s="84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>43972</v>
@@ -11314,10 +11366,10 @@
     <row r="137" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="117"/>
       <c r="B137" s="55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D137" s="61" t="n">
         <v>43972</v>
@@ -11365,10 +11417,10 @@
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="181"/>
       <c r="B138" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C138" s="84" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>43972</v>
@@ -11402,10 +11454,10 @@
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="181"/>
       <c r="B139" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C139" s="84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D139" s="3" t="n">
         <v>43972</v>
@@ -11439,10 +11491,10 @@
     <row r="140" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="117"/>
       <c r="B140" s="55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D140" s="61" t="n">
         <v>43972</v>
@@ -11488,10 +11540,10 @@
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="181"/>
       <c r="B141" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C141" s="84" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D141" s="3" t="n">
         <v>43972</v>
@@ -11525,10 +11577,10 @@
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="181"/>
       <c r="B142" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C142" s="84" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>43972</v>
@@ -11590,10 +11642,10 @@
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="181"/>
       <c r="B144" s="84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C144" s="84" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>44042</v>
@@ -11633,10 +11685,10 @@
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="181"/>
       <c r="B145" s="84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C145" s="84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D145" s="3" t="n">
         <v>44042</v>
@@ -11673,16 +11725,16 @@
         <v>40</v>
       </c>
       <c r="U145" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="181"/>
       <c r="B146" s="84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C146" s="84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>44042</v>
@@ -11722,10 +11774,10 @@
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="181"/>
       <c r="B147" s="84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C147" s="84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D147" s="3" t="n">
         <v>44042</v>
@@ -11765,10 +11817,10 @@
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="181"/>
       <c r="B148" s="84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C148" s="84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D148" s="3" t="n">
         <v>44042</v>
@@ -11808,10 +11860,10 @@
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="181"/>
       <c r="B149" s="84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C149" s="84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D149" s="3" t="n">
         <v>44042</v>
@@ -11888,10 +11940,10 @@
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="181"/>
       <c r="B151" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C151" s="84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D151" s="3" t="n">
         <v>43972</v>
@@ -11934,10 +11986,10 @@
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="181"/>
       <c r="B152" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C152" s="84" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D152" s="3" t="n">
         <v>43972</v>
@@ -11975,19 +12027,19 @@
       </c>
       <c r="U152" s="0"/>
       <c r="V152" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W152" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="128"/>
       <c r="B153" s="42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C153" s="42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D153" s="81" t="n">
         <v>43972</v>
@@ -12027,7 +12079,7 @@
         <v>22</v>
       </c>
       <c r="V153" s="47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W153" s="47" t="s">
         <v>52</v>
@@ -12038,10 +12090,10 @@
     <row r="154" s="98" customFormat="true" ht="27.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="138"/>
       <c r="B154" s="93" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C154" s="93" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D154" s="140" t="n">
         <v>43972</v>
@@ -12055,7 +12107,7 @@
       <c r="G154" s="97"/>
       <c r="H154" s="97"/>
       <c r="I154" s="97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J154" s="140" t="n">
         <v>44034</v>
@@ -12093,10 +12145,10 @@
     <row r="155" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="130"/>
       <c r="B155" s="69" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D155" s="75" t="n">
         <v>43972</v>
@@ -12136,10 +12188,10 @@
         <v>40</v>
       </c>
       <c r="U155" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V155" s="74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W155" s="74" t="s">
         <v>126</v>
@@ -12150,10 +12202,10 @@
     <row r="156" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="128"/>
       <c r="B156" s="42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D156" s="81" t="n">
         <v>43972</v>
@@ -12193,7 +12245,7 @@
         <v>22</v>
       </c>
       <c r="V156" s="47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AMI156" s="50"/>
       <c r="AMJ156" s="50"/>
@@ -12201,10 +12253,10 @@
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="181"/>
       <c r="B157" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C157" s="84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D157" s="3" t="n">
         <v>43972</v>
@@ -12243,10 +12295,10 @@
         <v>22</v>
       </c>
       <c r="U157" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V157" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W157" s="8" t="s">
         <v>66</v>
@@ -12255,10 +12307,10 @@
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="181"/>
       <c r="B158" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C158" s="84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D158" s="3" t="n">
         <v>43972</v>
@@ -12295,19 +12347,19 @@
         <v>22</v>
       </c>
       <c r="V158" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W158" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="181"/>
       <c r="B159" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C159" s="84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D159" s="3" t="n">
         <v>43972</v>
@@ -12344,19 +12396,19 @@
         <v>22</v>
       </c>
       <c r="V159" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W159" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="181"/>
       <c r="B160" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C160" s="84" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>43972</v>
@@ -12395,19 +12447,19 @@
         <v>22</v>
       </c>
       <c r="V160" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W160" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="128"/>
       <c r="B161" s="42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D161" s="81" t="n">
         <v>43972</v>
@@ -12447,10 +12499,10 @@
         <v>22</v>
       </c>
       <c r="V161" s="47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W161" s="47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AMI161" s="50"/>
       <c r="AMJ161" s="50"/>
@@ -12458,10 +12510,10 @@
     <row r="162" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="124"/>
       <c r="B162" s="29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D162" s="35" t="n">
         <v>43972</v>
@@ -12503,10 +12555,10 @@
         <v>22</v>
       </c>
       <c r="V162" s="34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W162" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AMI162" s="37"/>
       <c r="AMJ162" s="37"/>
@@ -12514,10 +12566,10 @@
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="181"/>
       <c r="B163" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C163" s="84" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D163" s="3" t="n">
         <v>43972</v>
@@ -12559,16 +12611,16 @@
         <v>179</v>
       </c>
       <c r="W163" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="124"/>
       <c r="B164" s="29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D164" s="35" t="n">
         <v>43972</v>
@@ -12610,10 +12662,10 @@
         <v>22</v>
       </c>
       <c r="V164" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W164" s="34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AMI164" s="37"/>
       <c r="AMJ164" s="37"/>
@@ -12621,10 +12673,10 @@
     <row r="165" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="130"/>
       <c r="B165" s="69" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C165" s="69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D165" s="75" t="n">
         <v>43972</v>
@@ -12664,10 +12716,10 @@
         <v>22</v>
       </c>
       <c r="V165" s="74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W165" s="74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AMI165" s="77"/>
       <c r="AMJ165" s="77"/>
@@ -12675,10 +12727,10 @@
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="181"/>
       <c r="B166" s="84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C166" s="84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D166" s="3" t="n">
         <v>43972</v>
@@ -12715,7 +12767,7 @@
         <v>22</v>
       </c>
       <c r="V166" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" s="112" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12758,10 +12810,10 @@
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="181"/>
       <c r="B168" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C168" s="84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D168" s="3" t="n">
         <v>44046</v>
@@ -12773,7 +12825,7 @@
         <v>22</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K168" s="8" t="s">
         <v>33</v>
@@ -12794,16 +12846,16 @@
         <v>22</v>
       </c>
       <c r="W168" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="181"/>
       <c r="B169" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C169" s="84" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D169" s="3" t="n">
         <v>44097</v>
@@ -12816,7 +12868,7 @@
       </c>
       <c r="H169" s="190"/>
       <c r="J169" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K169" s="8" t="s">
         <v>33</v>
@@ -12843,10 +12895,10 @@
     <row r="170" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="130"/>
       <c r="B170" s="69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C170" s="69" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D170" s="75" t="n">
         <v>44046</v>
@@ -12861,7 +12913,7 @@
       <c r="H170" s="73"/>
       <c r="I170" s="73"/>
       <c r="J170" s="134" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K170" s="74" t="s">
         <v>33</v>
@@ -12883,7 +12935,7 @@
         <v>22</v>
       </c>
       <c r="U170" s="74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AMI170" s="77"/>
       <c r="AMJ170" s="77"/>
@@ -12891,10 +12943,10 @@
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="181"/>
       <c r="B171" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C171" s="84" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D171" s="3" t="n">
         <v>44046</v>
@@ -12906,7 +12958,7 @@
         <v>22</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K171" s="8" t="s">
         <v>33</v>
@@ -12930,10 +12982,10 @@
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="181"/>
       <c r="B172" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C172" s="84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D172" s="3" t="n">
         <v>44046</v>
@@ -12945,7 +12997,7 @@
         <v>22</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K172" s="8" t="s">
         <v>33</v>
@@ -12969,10 +13021,10 @@
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="181"/>
       <c r="B173" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C173" s="84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D173" s="3" t="n">
         <v>44097</v>
@@ -12985,7 +13037,7 @@
       </c>
       <c r="H173" s="190"/>
       <c r="J173" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K173" s="8" t="s">
         <v>33</v>
@@ -13009,10 +13061,10 @@
     <row r="174" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="128"/>
       <c r="B174" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D174" s="81" t="n">
         <v>44046</v>
@@ -13027,7 +13079,7 @@
       <c r="H174" s="80"/>
       <c r="I174" s="80"/>
       <c r="J174" s="51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K174" s="47" t="s">
         <v>33</v>
@@ -13049,7 +13101,7 @@
         <v>22</v>
       </c>
       <c r="V174" s="47" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AMI174" s="50"/>
       <c r="AMJ174" s="50"/>
@@ -13057,10 +13109,10 @@
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="181"/>
       <c r="B175" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C175" s="84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D175" s="3" t="n">
         <v>44046</v>
@@ -13072,7 +13124,7 @@
         <v>22</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K175" s="8" t="s">
         <v>33</v>
@@ -13096,10 +13148,10 @@
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="181"/>
       <c r="B176" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C176" s="84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D176" s="3" t="n">
         <v>44046</v>
@@ -13111,7 +13163,7 @@
         <v>22</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K176" s="8" t="s">
         <v>33</v>
@@ -13138,16 +13190,16 @@
         <v>22</v>
       </c>
       <c r="W176" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="130"/>
       <c r="B177" s="69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C177" s="69" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D177" s="75" t="n">
         <v>44097</v>
@@ -13162,7 +13214,7 @@
       <c r="H177" s="132"/>
       <c r="I177" s="73"/>
       <c r="J177" s="75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K177" s="74" t="s">
         <v>33</v>
@@ -13184,13 +13236,13 @@
         <v>22</v>
       </c>
       <c r="U177" s="74" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V177" s="74" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="W177" s="74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AMI177" s="77"/>
       <c r="AMJ177" s="77"/>
@@ -13198,10 +13250,10 @@
     <row r="178" s="47" customFormat="true" ht="134.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="128"/>
       <c r="B178" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C178" s="42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D178" s="81" t="n">
         <v>44097</v>
@@ -13215,10 +13267,10 @@
       <c r="G178" s="80"/>
       <c r="H178" s="46"/>
       <c r="I178" s="80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J178" s="81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K178" s="47" t="s">
         <v>33</v>
@@ -13240,7 +13292,7 @@
         <v>22</v>
       </c>
       <c r="V178" s="47" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AMI178" s="50"/>
       <c r="AMJ178" s="50"/>
@@ -13248,10 +13300,10 @@
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="181"/>
       <c r="B179" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C179" s="84" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D179" s="3" t="n">
         <v>44046</v>
@@ -13263,7 +13315,7 @@
         <v>22</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K179" s="8" t="s">
         <v>33</v>
@@ -13284,16 +13336,16 @@
         <v>22</v>
       </c>
       <c r="W179" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="181"/>
       <c r="B180" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C180" s="84" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D180" s="3" t="n">
         <v>44097</v>
@@ -13306,7 +13358,7 @@
       </c>
       <c r="H180" s="190"/>
       <c r="J180" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K180" s="8" t="s">
         <v>33</v>
@@ -13333,10 +13385,10 @@
     <row r="181" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="130"/>
       <c r="B181" s="69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C181" s="69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D181" s="75" t="n">
         <v>44046</v>
@@ -13351,7 +13403,7 @@
       <c r="H181" s="73"/>
       <c r="I181" s="73"/>
       <c r="J181" s="134" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K181" s="74" t="s">
         <v>33</v>
@@ -13373,10 +13425,10 @@
         <v>22</v>
       </c>
       <c r="U181" s="74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="V181" s="74" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AMI181" s="77"/>
       <c r="AMJ181" s="77"/>
@@ -13384,10 +13436,10 @@
     <row r="182" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="128"/>
       <c r="B182" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D182" s="81" t="n">
         <v>44046</v>
@@ -13402,7 +13454,7 @@
       <c r="H182" s="80"/>
       <c r="I182" s="80"/>
       <c r="J182" s="51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K182" s="47" t="s">
         <v>33</v>
@@ -13424,7 +13476,7 @@
         <v>22</v>
       </c>
       <c r="V182" s="47" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AMI182" s="50"/>
       <c r="AMJ182" s="50"/>
@@ -13432,10 +13484,10 @@
     <row r="183" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="130"/>
       <c r="B183" s="69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C183" s="69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D183" s="75" t="n">
         <v>44046</v>
@@ -13450,7 +13502,7 @@
       <c r="H183" s="73"/>
       <c r="I183" s="73"/>
       <c r="J183" s="134" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K183" s="74" t="s">
         <v>33</v>
@@ -13472,7 +13524,7 @@
         <v>22</v>
       </c>
       <c r="U183" s="74" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AMI183" s="77"/>
       <c r="AMJ183" s="77"/>
@@ -13480,10 +13532,10 @@
     <row r="184" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="130"/>
       <c r="B184" s="69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C184" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D184" s="75" t="n">
         <v>44046</v>
@@ -13498,7 +13550,7 @@
       <c r="H184" s="73"/>
       <c r="I184" s="73"/>
       <c r="J184" s="134" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K184" s="74" t="s">
         <v>33</v>
@@ -13520,13 +13572,13 @@
         <v>22</v>
       </c>
       <c r="U184" s="76" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V184" s="74" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W184" s="74" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AMI184" s="77"/>
       <c r="AMJ184" s="77"/>
@@ -13534,10 +13586,10 @@
     <row r="185" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="130"/>
       <c r="B185" s="69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C185" s="69" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D185" s="75" t="n">
         <v>44097</v>
@@ -13552,7 +13604,7 @@
       <c r="H185" s="132"/>
       <c r="I185" s="73"/>
       <c r="J185" s="75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K185" s="74" t="s">
         <v>33</v>
@@ -13574,7 +13626,7 @@
         <v>22</v>
       </c>
       <c r="U185" s="74" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AMI185" s="77"/>
       <c r="AMJ185" s="77"/>
@@ -13582,10 +13634,10 @@
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="191"/>
       <c r="B186" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C186" s="84" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D186" s="3" t="n">
         <v>44046</v>
@@ -13597,7 +13649,7 @@
         <v>22</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K186" s="8" t="s">
         <v>33</v>
@@ -13618,16 +13670,16 @@
         <v>22</v>
       </c>
       <c r="W186" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="191"/>
       <c r="B187" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C187" s="84" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D187" s="3" t="n">
         <v>44097</v>
@@ -13640,7 +13692,7 @@
       </c>
       <c r="H187" s="190"/>
       <c r="J187" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K187" s="8" t="s">
         <v>33</v>
@@ -13664,10 +13716,10 @@
     <row r="188" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="124"/>
       <c r="B188" s="29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D188" s="35" t="n">
         <v>44097</v>
@@ -13682,7 +13734,7 @@
       <c r="H188" s="192"/>
       <c r="I188" s="33"/>
       <c r="J188" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K188" s="34" t="s">
         <v>33</v>
@@ -13704,7 +13756,7 @@
         <v>22</v>
       </c>
       <c r="W188" s="34" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AMI188" s="37"/>
       <c r="AMJ188" s="37"/>
@@ -13712,10 +13764,10 @@
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="191"/>
       <c r="B189" s="84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C189" s="84" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D189" s="3" t="n">
         <v>44046</v>
@@ -13727,7 +13779,7 @@
         <v>22</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K189" s="8" t="s">
         <v>33</v>
@@ -13791,10 +13843,10 @@
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="181"/>
       <c r="B191" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C191" s="84" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D191" s="3" t="n">
         <v>44039</v>
@@ -13827,16 +13879,16 @@
         <v>22</v>
       </c>
       <c r="V191" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="181"/>
       <c r="B192" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C192" s="84" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D192" s="3" t="n">
         <v>44039</v>
@@ -13872,10 +13924,10 @@
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="181"/>
       <c r="B193" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C193" s="84" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D193" s="3" t="n">
         <v>44039</v>
@@ -13911,10 +13963,10 @@
     <row r="194" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="130"/>
       <c r="B194" s="69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C194" s="69" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D194" s="75" t="n">
         <v>44039</v>
@@ -13951,7 +14003,7 @@
         <v>22</v>
       </c>
       <c r="U194" s="74" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AMI194" s="77"/>
       <c r="AMJ194" s="77"/>
@@ -13959,10 +14011,10 @@
     <row r="195" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="138"/>
       <c r="B195" s="93" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C195" s="93" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D195" s="140" t="n">
         <v>44039</v>
@@ -13999,7 +14051,7 @@
         <v>22</v>
       </c>
       <c r="U195" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AMI195" s="101"/>
       <c r="AMJ195" s="101"/>
@@ -14007,10 +14059,10 @@
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="181"/>
       <c r="B196" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C196" s="84" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D196" s="3" t="n">
         <v>44039</v>
@@ -14046,10 +14098,10 @@
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="181"/>
       <c r="B197" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C197" s="84" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D197" s="3" t="n">
         <v>44039</v>
@@ -14085,10 +14137,10 @@
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="181"/>
       <c r="B198" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C198" s="84" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D198" s="3" t="n">
         <v>44039</v>
@@ -14124,10 +14176,10 @@
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="181"/>
       <c r="B199" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C199" s="84" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D199" s="3" t="n">
         <v>44039</v>
@@ -14163,10 +14215,10 @@
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="181"/>
       <c r="B200" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C200" s="84" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D200" s="3" t="n">
         <v>44039</v>
@@ -14202,10 +14254,10 @@
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="181"/>
       <c r="B201" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C201" s="84" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D201" s="3" t="n">
         <v>44039</v>
@@ -14241,10 +14293,10 @@
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="181"/>
       <c r="B202" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C202" s="84" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D202" s="3" t="n">
         <v>44039</v>
@@ -14280,10 +14332,10 @@
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="181"/>
       <c r="B203" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C203" s="84" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D203" s="3" t="n">
         <v>44039</v>
@@ -14319,10 +14371,10 @@
     <row r="204" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="130"/>
       <c r="B204" s="69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C204" s="69" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D204" s="75" t="n">
         <v>44039</v>
@@ -14359,10 +14411,10 @@
         <v>22</v>
       </c>
       <c r="U204" s="74" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V204" s="74" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AMI204" s="77"/>
       <c r="AMJ204" s="77"/>
@@ -14370,10 +14422,10 @@
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="181"/>
       <c r="B205" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C205" s="84" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D205" s="3" t="n">
         <v>44039</v>
@@ -14409,10 +14461,10 @@
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="181"/>
       <c r="B206" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C206" s="84" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D206" s="3" t="n">
         <v>44039</v>
@@ -14448,10 +14500,10 @@
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="181"/>
       <c r="B207" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C207" s="84" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D207" s="3" t="n">
         <v>44039</v>
@@ -14484,16 +14536,16 @@
         <v>22</v>
       </c>
       <c r="U207" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="138"/>
       <c r="B208" s="93" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C208" s="93" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D208" s="140" t="n">
         <v>44039</v>
@@ -14530,7 +14582,7 @@
         <v>22</v>
       </c>
       <c r="U208" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AMI208" s="101"/>
       <c r="AMJ208" s="101"/>
@@ -14538,10 +14590,10 @@
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="181"/>
       <c r="B209" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C209" s="84" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D209" s="3" t="n">
         <v>44039</v>
@@ -14577,10 +14629,10 @@
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="181"/>
       <c r="B210" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C210" s="84" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D210" s="3" t="n">
         <v>44039</v>
@@ -14616,10 +14668,10 @@
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="181"/>
       <c r="B211" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C211" s="84" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D211" s="3" t="n">
         <v>44039</v>
@@ -14655,10 +14707,10 @@
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="181"/>
       <c r="B212" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C212" s="84" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D212" s="3" t="n">
         <v>44039</v>
@@ -14731,10 +14783,10 @@
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="181"/>
       <c r="B214" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C214" s="84" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D214" s="3" t="n">
         <v>44040</v>
@@ -14770,10 +14822,10 @@
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="181"/>
       <c r="B215" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C215" s="84" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D215" s="3" t="n">
         <v>44040</v>
@@ -14809,10 +14861,10 @@
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="181"/>
       <c r="B216" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C216" s="84" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D216" s="3" t="n">
         <v>44040</v>
@@ -14848,10 +14900,10 @@
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="181"/>
       <c r="B217" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C217" s="84" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D217" s="3" t="n">
         <v>44040</v>
@@ -14887,10 +14939,10 @@
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="181"/>
       <c r="B218" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C218" s="84" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D218" s="3" t="n">
         <v>44040</v>
@@ -14926,10 +14978,10 @@
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="181"/>
       <c r="B219" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C219" s="84" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D219" s="3" t="n">
         <v>44040</v>
@@ -14965,10 +15017,10 @@
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="181"/>
       <c r="B220" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C220" s="84" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D220" s="3" t="n">
         <v>44040</v>
@@ -15004,10 +15056,10 @@
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="181"/>
       <c r="B221" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C221" s="84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D221" s="3" t="n">
         <v>44040</v>
@@ -15043,10 +15095,10 @@
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="181"/>
       <c r="B222" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C222" s="84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D222" s="3" t="n">
         <v>44040</v>
@@ -15082,10 +15134,10 @@
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="181"/>
       <c r="B223" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C223" s="84" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D223" s="3" t="n">
         <v>44040</v>
@@ -15121,10 +15173,10 @@
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="181"/>
       <c r="B224" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C224" s="84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D224" s="3" t="n">
         <v>44040</v>
@@ -15160,10 +15212,10 @@
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="181"/>
       <c r="B225" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C225" s="84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D225" s="3" t="n">
         <v>44040</v>
@@ -15199,10 +15251,10 @@
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="181"/>
       <c r="B226" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C226" s="84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D226" s="3" t="n">
         <v>44040</v>
@@ -15238,10 +15290,10 @@
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="181"/>
       <c r="B227" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C227" s="84" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D227" s="3" t="n">
         <v>44040</v>
@@ -15277,10 +15329,10 @@
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="181"/>
       <c r="B228" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C228" s="84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D228" s="3" t="n">
         <v>44040</v>
@@ -15316,10 +15368,10 @@
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="181"/>
       <c r="B229" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C229" s="84" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D229" s="3" t="n">
         <v>44040</v>
@@ -15355,10 +15407,10 @@
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="181"/>
       <c r="B230" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C230" s="84" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D230" s="3" t="n">
         <v>44040</v>
@@ -15394,10 +15446,10 @@
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="181"/>
       <c r="B231" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C231" s="84" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D231" s="3" t="n">
         <v>44040</v>
@@ -15433,10 +15485,10 @@
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="181"/>
       <c r="B232" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C232" s="84" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D232" s="3" t="n">
         <v>44040</v>
@@ -15472,10 +15524,10 @@
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="181"/>
       <c r="B233" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C233" s="84" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D233" s="3" t="n">
         <v>44040</v>
@@ -15508,16 +15560,16 @@
         <v>22</v>
       </c>
       <c r="U233" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="181"/>
       <c r="B234" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C234" s="84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D234" s="3" t="n">
         <v>44040</v>
@@ -15553,10 +15605,10 @@
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="181"/>
       <c r="B235" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C235" s="84" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D235" s="3" t="n">
         <v>44091</v>
@@ -15593,10 +15645,10 @@
     <row r="236" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="181"/>
       <c r="B236" s="194" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C236" s="194" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D236" s="195"/>
       <c r="E236" s="196"/>
@@ -15604,7 +15656,7 @@
         <v>25</v>
       </c>
       <c r="G236" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H236" s="23"/>
       <c r="I236" s="23"/>
@@ -15624,10 +15676,10 @@
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="181"/>
       <c r="B237" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C237" s="84" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D237" s="3" t="n">
         <v>44091</v>
@@ -15661,16 +15713,16 @@
         <v>22</v>
       </c>
       <c r="U237" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="181"/>
       <c r="B238" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C238" s="84" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D238" s="3" t="n">
         <v>44091</v>
@@ -15707,10 +15759,10 @@
     <row r="239" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="181"/>
       <c r="B239" s="194" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C239" s="194" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D239" s="195"/>
       <c r="E239" s="196"/>
@@ -15718,7 +15770,7 @@
         <v>25</v>
       </c>
       <c r="G239" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H239" s="23"/>
       <c r="I239" s="23"/>
@@ -15738,10 +15790,10 @@
     <row r="240" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="181"/>
       <c r="B240" s="194" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C240" s="194" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D240" s="195"/>
       <c r="E240" s="196"/>
@@ -15749,7 +15801,7 @@
         <v>25</v>
       </c>
       <c r="G240" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H240" s="23"/>
       <c r="I240" s="23"/>
@@ -15769,10 +15821,10 @@
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="181"/>
       <c r="B241" s="84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C241" s="84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D241" s="3" t="n">
         <v>44091</v>
@@ -15851,13 +15903,13 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B244" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C244" s="84" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D244" s="3" t="n">
         <v>44046</v>
@@ -15871,7 +15923,7 @@
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
       <c r="J244" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K244" s="8" t="s">
         <v>35</v>
@@ -15892,16 +15944,16 @@
         <v>22</v>
       </c>
       <c r="W244" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="198"/>
       <c r="B245" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C245" s="84" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D245" s="3" t="n">
         <v>44046</v>
@@ -15913,7 +15965,7 @@
         <v>22</v>
       </c>
       <c r="J245" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K245" s="8" t="s">
         <v>35</v>
@@ -15934,19 +15986,19 @@
         <v>22</v>
       </c>
       <c r="V245" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="W245" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="198"/>
       <c r="B246" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C246" s="84" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D246" s="3" t="n">
         <v>44046</v>
@@ -15958,7 +16010,7 @@
         <v>22</v>
       </c>
       <c r="J246" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K246" s="8" t="s">
         <v>35</v>
@@ -15980,16 +16032,16 @@
       </c>
       <c r="V246" s="0"/>
       <c r="W246" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="130"/>
       <c r="B247" s="69" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C247" s="69" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D247" s="75" t="n">
         <v>44046</v>
@@ -16004,7 +16056,7 @@
       <c r="H247" s="73"/>
       <c r="I247" s="73"/>
       <c r="J247" s="134" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K247" s="74" t="s">
         <v>35</v>
@@ -16026,10 +16078,10 @@
         <v>22</v>
       </c>
       <c r="V247" s="74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="W247" s="74" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AMI247" s="77"/>
       <c r="AMJ247" s="77"/>
@@ -16037,10 +16089,10 @@
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="198"/>
       <c r="B248" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C248" s="84" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D248" s="3" t="n">
         <v>44046</v>
@@ -16052,7 +16104,7 @@
         <v>22</v>
       </c>
       <c r="J248" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K248" s="8" t="s">
         <v>35</v>
@@ -16073,19 +16125,19 @@
         <v>22</v>
       </c>
       <c r="V248" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="W248" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="198"/>
       <c r="B249" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C249" s="84" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D249" s="3" t="n">
         <v>44046</v>
@@ -16097,7 +16149,7 @@
         <v>22</v>
       </c>
       <c r="J249" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K249" s="8" t="s">
         <v>35</v>
@@ -16118,19 +16170,19 @@
         <v>22</v>
       </c>
       <c r="V249" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="W249" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="250" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="124"/>
       <c r="B250" s="29" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D250" s="35" t="n">
         <v>44046</v>
@@ -16145,7 +16197,7 @@
       <c r="H250" s="33"/>
       <c r="I250" s="33"/>
       <c r="J250" s="193" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K250" s="34" t="s">
         <v>35</v>
@@ -16167,10 +16219,10 @@
         <v>22</v>
       </c>
       <c r="V250" s="34" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W250" s="34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AMI250" s="37"/>
       <c r="AMJ250" s="37"/>
@@ -16178,10 +16230,10 @@
     <row r="251" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="128"/>
       <c r="B251" s="42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D251" s="81" t="n">
         <v>44046</v>
@@ -16196,7 +16248,7 @@
       <c r="H251" s="80"/>
       <c r="I251" s="80"/>
       <c r="J251" s="51" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K251" s="47" t="s">
         <v>35</v>
@@ -16218,7 +16270,7 @@
         <v>22</v>
       </c>
       <c r="V251" s="47" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AMI251" s="50"/>
       <c r="AMJ251" s="50"/>
@@ -16226,10 +16278,10 @@
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="198"/>
       <c r="B252" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C252" s="84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D252" s="3" t="n">
         <v>44046</v>
@@ -16241,7 +16293,7 @@
         <v>22</v>
       </c>
       <c r="J252" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K252" s="8" t="s">
         <v>35</v>
@@ -16262,16 +16314,16 @@
         <v>22</v>
       </c>
       <c r="W252" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="198"/>
       <c r="B253" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C253" s="84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D253" s="3" t="n">
         <v>44046</v>
@@ -16283,7 +16335,7 @@
         <v>22</v>
       </c>
       <c r="J253" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K253" s="8" t="s">
         <v>35</v>
@@ -16304,19 +16356,19 @@
         <v>22</v>
       </c>
       <c r="U253" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="W253" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="198"/>
       <c r="B254" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C254" s="84" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D254" s="3" t="n">
         <v>44046</v>
@@ -16328,7 +16380,7 @@
         <v>22</v>
       </c>
       <c r="J254" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K254" s="8" t="s">
         <v>35</v>
@@ -16349,16 +16401,16 @@
         <v>22</v>
       </c>
       <c r="W254" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="198"/>
       <c r="B255" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C255" s="84" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D255" s="3" t="n">
         <v>44046</v>
@@ -16370,7 +16422,7 @@
         <v>22</v>
       </c>
       <c r="J255" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K255" s="8" t="s">
         <v>35</v>
@@ -16391,16 +16443,16 @@
         <v>22</v>
       </c>
       <c r="W255" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="198"/>
       <c r="B256" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C256" s="84" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D256" s="3" t="n">
         <v>44046</v>
@@ -16412,7 +16464,7 @@
         <v>22</v>
       </c>
       <c r="J256" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K256" s="8" t="s">
         <v>35</v>
@@ -16433,16 +16485,16 @@
         <v>22</v>
       </c>
       <c r="W256" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="257" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="117"/>
       <c r="B257" s="55" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C257" s="55" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D257" s="61" t="n">
         <v>44046</v>
@@ -16457,7 +16509,7 @@
       <c r="H257" s="59"/>
       <c r="I257" s="59"/>
       <c r="J257" s="119" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K257" s="60" t="s">
         <v>35</v>
@@ -16479,7 +16531,7 @@
         <v>22</v>
       </c>
       <c r="U257" s="60" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AMI257" s="63"/>
       <c r="AMJ257" s="63"/>
@@ -16487,10 +16539,10 @@
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="198"/>
       <c r="B258" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C258" s="84" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D258" s="3" t="n">
         <v>44046</v>
@@ -16502,7 +16554,7 @@
         <v>22</v>
       </c>
       <c r="J258" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K258" s="8" t="s">
         <v>35</v>
@@ -16523,19 +16575,19 @@
         <v>22</v>
       </c>
       <c r="V258" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="W258" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="198"/>
       <c r="B259" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C259" s="84" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D259" s="3" t="n">
         <v>44046</v>
@@ -16547,7 +16599,7 @@
         <v>22</v>
       </c>
       <c r="J259" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K259" s="8" t="s">
         <v>35</v>
@@ -16568,16 +16620,16 @@
         <v>22</v>
       </c>
       <c r="W259" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="260" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="138"/>
       <c r="B260" s="93" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C260" s="93" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D260" s="140" t="n">
         <v>44046</v>
@@ -16592,7 +16644,7 @@
       <c r="H260" s="142"/>
       <c r="I260" s="142"/>
       <c r="J260" s="102" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K260" s="98" t="s">
         <v>35</v>
@@ -16606,7 +16658,7 @@
       <c r="P260" s="102"/>
       <c r="R260" s="102"/>
       <c r="U260" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AMI260" s="101"/>
       <c r="AMJ260" s="101"/>
@@ -16614,10 +16666,10 @@
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="198"/>
       <c r="B261" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C261" s="84" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D261" s="3" t="n">
         <v>44046</v>
@@ -16629,7 +16681,7 @@
         <v>22</v>
       </c>
       <c r="J261" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K261" s="8" t="s">
         <v>35</v>
@@ -16650,16 +16702,16 @@
         <v>22</v>
       </c>
       <c r="W261" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="262" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="130"/>
       <c r="B262" s="69" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C262" s="69" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D262" s="75" t="n">
         <v>44046</v>
@@ -16674,7 +16726,7 @@
       <c r="H262" s="73"/>
       <c r="I262" s="73"/>
       <c r="J262" s="134" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K262" s="74" t="s">
         <v>35</v>
@@ -16696,10 +16748,10 @@
         <v>22</v>
       </c>
       <c r="V262" s="74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="W262" s="74" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AMI262" s="77"/>
       <c r="AMJ262" s="77"/>
@@ -16707,10 +16759,10 @@
     <row r="263" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="124"/>
       <c r="B263" s="29" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D263" s="35" t="n">
         <v>44097</v>
@@ -16725,7 +16777,7 @@
       <c r="H263" s="192"/>
       <c r="I263" s="33"/>
       <c r="J263" s="193" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K263" s="34" t="s">
         <v>33</v>
@@ -16747,10 +16799,10 @@
         <v>22</v>
       </c>
       <c r="V263" s="34" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="W263" s="34" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AMI263" s="37"/>
       <c r="AMJ263" s="37"/>
@@ -16758,10 +16810,10 @@
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="198"/>
       <c r="B264" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C264" s="84" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D264" s="3" t="n">
         <v>44046</v>
@@ -16773,7 +16825,7 @@
         <v>22</v>
       </c>
       <c r="J264" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K264" s="8" t="s">
         <v>35</v>
@@ -16797,7 +16849,7 @@
         <v>179</v>
       </c>
       <c r="W264" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16835,10 +16887,10 @@
     <row r="266" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="130"/>
       <c r="B266" s="69" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C266" s="69" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D266" s="75" t="n">
         <v>44047</v>
@@ -16853,7 +16905,7 @@
       <c r="H266" s="73"/>
       <c r="I266" s="73"/>
       <c r="J266" s="134" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K266" s="74" t="s">
         <v>33</v>
@@ -16875,13 +16927,13 @@
         <v>22</v>
       </c>
       <c r="U266" s="74" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="V266" s="74" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="W266" s="74" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AMI266" s="77"/>
       <c r="AMJ266" s="77"/>
@@ -16889,10 +16941,10 @@
     <row r="267" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="124"/>
       <c r="B267" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C267" s="29" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D267" s="35" t="n">
         <v>44047</v>
@@ -16907,7 +16959,7 @@
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
       <c r="J267" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K267" s="34" t="s">
         <v>33</v>
@@ -16929,10 +16981,10 @@
         <v>22</v>
       </c>
       <c r="V267" s="34" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="W267" s="34" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AMI267" s="37"/>
       <c r="AMJ267" s="37"/>
@@ -16940,10 +16992,10 @@
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="198"/>
       <c r="B268" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C268" s="84" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D268" s="3" t="n">
         <v>44047</v>
@@ -16955,7 +17007,7 @@
         <v>22</v>
       </c>
       <c r="J268" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K268" s="8" t="s">
         <v>33</v>
@@ -16976,19 +17028,19 @@
         <v>22</v>
       </c>
       <c r="V268" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="W268" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="198"/>
       <c r="B269" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C269" s="84" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D269" s="3" t="n">
         <v>44047</v>
@@ -17000,7 +17052,7 @@
         <v>22</v>
       </c>
       <c r="J269" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K269" s="8" t="s">
         <v>33</v>
@@ -17021,16 +17073,16 @@
         <v>22</v>
       </c>
       <c r="W269" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="198"/>
       <c r="B270" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C270" s="84" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D270" s="3" t="n">
         <v>44047</v>
@@ -17042,7 +17094,7 @@
         <v>22</v>
       </c>
       <c r="J270" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K270" s="8" t="s">
         <v>33</v>
@@ -17063,19 +17115,19 @@
         <v>22</v>
       </c>
       <c r="V270" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="W270" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="198"/>
       <c r="B271" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C271" s="84" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D271" s="3" t="n">
         <v>44047</v>
@@ -17087,7 +17139,7 @@
         <v>22</v>
       </c>
       <c r="J271" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K271" s="8" t="s">
         <v>33</v>
@@ -17111,16 +17163,16 @@
         <v>179</v>
       </c>
       <c r="W271" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="198"/>
       <c r="B272" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C272" s="84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D272" s="3" t="n">
         <v>44047</v>
@@ -17132,7 +17184,7 @@
         <v>22</v>
       </c>
       <c r="J272" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K272" s="8" t="s">
         <v>33</v>
@@ -17153,7 +17205,7 @@
         <v>22</v>
       </c>
       <c r="V272" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="W272" s="8" t="s">
         <v>52</v>
@@ -17162,10 +17214,10 @@
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="198"/>
       <c r="B273" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C273" s="84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D273" s="3" t="n">
         <v>44047</v>
@@ -17177,7 +17229,7 @@
         <v>22</v>
       </c>
       <c r="J273" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K273" s="8" t="s">
         <v>33</v>
@@ -17198,16 +17250,16 @@
         <v>22</v>
       </c>
       <c r="V273" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="198"/>
       <c r="B274" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C274" s="84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D274" s="3" t="n">
         <v>44047</v>
@@ -17219,7 +17271,7 @@
         <v>22</v>
       </c>
       <c r="J274" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K274" s="8" t="s">
         <v>33</v>
@@ -17240,19 +17292,19 @@
         <v>22</v>
       </c>
       <c r="V274" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="W274" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="128"/>
       <c r="B275" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C275" s="42" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D275" s="81" t="n">
         <v>44047</v>
@@ -17267,7 +17319,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
       <c r="J275" s="51" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K275" s="47" t="s">
         <v>33</v>
@@ -17289,7 +17341,7 @@
         <v>22</v>
       </c>
       <c r="V275" s="47" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="W275" s="47" t="s">
         <v>52</v>
@@ -17300,10 +17352,10 @@
     <row r="276" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="138"/>
       <c r="B276" s="93" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C276" s="93" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D276" s="140" t="n">
         <v>44047</v>
@@ -17318,7 +17370,7 @@
       <c r="H276" s="142"/>
       <c r="I276" s="142"/>
       <c r="J276" s="102" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K276" s="98" t="s">
         <v>33</v>
@@ -17340,7 +17392,7 @@
         <v>40</v>
       </c>
       <c r="U276" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AMI276" s="101"/>
       <c r="AMJ276" s="101"/>
@@ -17348,10 +17400,10 @@
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="198"/>
       <c r="B277" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C277" s="84" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D277" s="3" t="n">
         <v>44047</v>
@@ -17363,7 +17415,7 @@
         <v>22</v>
       </c>
       <c r="J277" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K277" s="8" t="s">
         <v>33</v>
@@ -17384,19 +17436,19 @@
         <v>22</v>
       </c>
       <c r="V277" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="W277" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="198"/>
       <c r="B278" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C278" s="84" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D278" s="3" t="n">
         <v>44047</v>
@@ -17408,7 +17460,7 @@
         <v>22</v>
       </c>
       <c r="J278" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K278" s="8" t="s">
         <v>33</v>
@@ -17429,16 +17481,16 @@
         <v>22</v>
       </c>
       <c r="W278" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="198"/>
       <c r="B279" s="84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C279" s="84" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D279" s="3" t="n">
         <v>44047</v>
@@ -17450,7 +17502,7 @@
         <v>22</v>
       </c>
       <c r="J279" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K279" s="8" t="s">
         <v>33</v>
@@ -17474,16 +17526,16 @@
         <v>179</v>
       </c>
       <c r="W279" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="201"/>
       <c r="B280" s="202" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C280" s="202" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D280" s="3" t="n">
         <v>44047</v>
@@ -17495,7 +17547,7 @@
         <v>22</v>
       </c>
       <c r="J280" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K280" s="8" t="s">
         <v>33</v>
@@ -17516,19 +17568,19 @@
         <v>22</v>
       </c>
       <c r="V280" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="W280" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="281" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="128"/>
       <c r="B281" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C281" s="42" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D281" s="81" t="n">
         <v>44047</v>
@@ -17543,7 +17595,7 @@
       <c r="H281" s="80"/>
       <c r="I281" s="80"/>
       <c r="J281" s="51" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K281" s="47" t="s">
         <v>33</v>
@@ -17565,10 +17617,10 @@
         <v>40</v>
       </c>
       <c r="U281" s="47" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="V281" s="47" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AMI281" s="50"/>
       <c r="AMJ281" s="50"/>
@@ -17576,10 +17628,10 @@
     <row r="282" s="212" customFormat="true" ht="77.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="203"/>
       <c r="B282" s="204" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C282" s="204" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D282" s="205" t="n">
         <v>44047</v>
@@ -17591,7 +17643,7 @@
         <v>22</v>
       </c>
       <c r="G282" s="208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H282" s="209"/>
       <c r="I282" s="209"/>
@@ -17616,10 +17668,10 @@
     <row r="283" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="124"/>
       <c r="B283" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C283" s="29" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D283" s="35" t="n">
         <v>44047</v>
@@ -17634,7 +17686,7 @@
       <c r="H283" s="33"/>
       <c r="I283" s="33"/>
       <c r="J283" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K283" s="34" t="s">
         <v>33</v>
@@ -17656,10 +17708,10 @@
         <v>40</v>
       </c>
       <c r="U283" s="34" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="V283" s="34" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AMI283" s="37"/>
       <c r="AMJ283" s="37"/>
@@ -17667,10 +17719,10 @@
     <row r="284" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="124"/>
       <c r="B284" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D284" s="35" t="n">
         <v>44047</v>
@@ -17685,7 +17737,7 @@
       <c r="H284" s="33"/>
       <c r="I284" s="33"/>
       <c r="J284" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K284" s="34" t="s">
         <v>33</v>
@@ -17708,7 +17760,7 @@
       </c>
       <c r="U284" s="37"/>
       <c r="V284" s="37" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="W284" s="37" t="s">
         <v>66</v>
@@ -17722,10 +17774,10 @@
     <row r="285" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="117"/>
       <c r="B285" s="55" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C285" s="55" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D285" s="61" t="n">
         <v>44047</v>
@@ -17740,7 +17792,7 @@
       <c r="H285" s="59"/>
       <c r="I285" s="59"/>
       <c r="J285" s="64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K285" s="60" t="s">
         <v>33</v>
@@ -17762,7 +17814,7 @@
         <v>22</v>
       </c>
       <c r="U285" s="60" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AMI285" s="63"/>
       <c r="AMJ285" s="63"/>
@@ -17770,10 +17822,10 @@
     <row r="286" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="124"/>
       <c r="B286" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D286" s="35" t="n">
         <v>44047</v>
@@ -17788,7 +17840,7 @@
       <c r="H286" s="33"/>
       <c r="I286" s="33"/>
       <c r="J286" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K286" s="34" t="s">
         <v>33</v>
@@ -17810,10 +17862,10 @@
         <v>22</v>
       </c>
       <c r="V286" s="34" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="W286" s="34" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AMI286" s="37"/>
       <c r="AMJ286" s="37"/>
@@ -17821,10 +17873,10 @@
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="201"/>
       <c r="B287" s="202" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C287" s="202" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D287" s="3" t="n">
         <v>44047</v>
@@ -17836,7 +17888,7 @@
         <v>22</v>
       </c>
       <c r="J287" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K287" s="8" t="s">
         <v>33</v>
@@ -17857,19 +17909,19 @@
         <v>22</v>
       </c>
       <c r="V287" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="W287" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="201"/>
       <c r="B288" s="202" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C288" s="202" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D288" s="3" t="n">
         <v>44047</v>
@@ -17881,7 +17933,7 @@
         <v>22</v>
       </c>
       <c r="J288" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K288" s="8" t="s">
         <v>33</v>
@@ -17902,10 +17954,10 @@
         <v>22</v>
       </c>
       <c r="U288" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="W288" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17943,10 +17995,10 @@
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="198"/>
       <c r="B290" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C290" s="84" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D290" s="3" t="n">
         <v>44047</v>
@@ -17979,16 +18031,16 @@
         <v>22</v>
       </c>
       <c r="W290" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="291" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="128"/>
       <c r="B291" s="42" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C291" s="42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D291" s="81" t="n">
         <v>44047</v>
@@ -18025,10 +18077,10 @@
         <v>22</v>
       </c>
       <c r="V291" s="47" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W291" s="47" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AMI291" s="50"/>
       <c r="AMJ291" s="50"/>
@@ -18036,10 +18088,10 @@
     <row r="292" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="138"/>
       <c r="B292" s="93" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C292" s="93" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D292" s="140" t="n">
         <v>44047</v>
@@ -18076,7 +18128,7 @@
         <v>22</v>
       </c>
       <c r="U292" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AMI292" s="101"/>
       <c r="AMJ292" s="101"/>
@@ -18084,10 +18136,10 @@
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="198"/>
       <c r="B293" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C293" s="84" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D293" s="3" t="n">
         <v>44047</v>
@@ -18120,7 +18172,7 @@
         <v>22</v>
       </c>
       <c r="W293" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18157,13 +18209,13 @@
     </row>
     <row r="295" s="212" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="203" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B295" s="204" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C295" s="204" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D295" s="205" t="n">
         <v>44049</v>
@@ -18175,7 +18227,7 @@
         <v>40</v>
       </c>
       <c r="G295" s="211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H295" s="209"/>
       <c r="I295" s="209"/>
@@ -18202,10 +18254,10 @@
     <row r="296" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="138"/>
       <c r="B296" s="93" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C296" s="93" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D296" s="140" t="n">
         <v>44049</v>
@@ -18242,7 +18294,7 @@
         <v>40</v>
       </c>
       <c r="U296" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AMI296" s="101"/>
       <c r="AMJ296" s="101"/>
@@ -18250,10 +18302,10 @@
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="198"/>
       <c r="B297" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C297" s="84" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D297" s="3" t="n">
         <v>44049</v>
@@ -18286,16 +18338,16 @@
         <v>22</v>
       </c>
       <c r="W297" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="198"/>
       <c r="B298" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C298" s="84" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D298" s="3" t="n">
         <v>44049</v>
@@ -18328,16 +18380,16 @@
         <v>22</v>
       </c>
       <c r="W298" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="299" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="128"/>
       <c r="B299" s="42" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C299" s="42" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D299" s="81" t="n">
         <v>44049</v>
@@ -18374,7 +18426,7 @@
         <v>22</v>
       </c>
       <c r="V299" s="47" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AMI299" s="50"/>
       <c r="AMJ299" s="50"/>
@@ -18382,10 +18434,10 @@
     <row r="300" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="124"/>
       <c r="B300" s="29" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C300" s="29" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D300" s="35" t="n">
         <v>44049</v>
@@ -18422,10 +18474,10 @@
         <v>22</v>
       </c>
       <c r="V300" s="34" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="W300" s="34" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AMI300" s="37"/>
       <c r="AMJ300" s="37"/>
@@ -18433,10 +18485,10 @@
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="198"/>
       <c r="B301" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C301" s="84" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D301" s="3" t="n">
         <v>44049</v>
@@ -18472,10 +18524,10 @@
     <row r="302" s="212" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="203"/>
       <c r="B302" s="204" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C302" s="204" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D302" s="205" t="n">
         <v>44049</v>
@@ -18487,7 +18539,7 @@
         <v>40</v>
       </c>
       <c r="G302" s="211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H302" s="209"/>
       <c r="I302" s="209"/>
@@ -18514,10 +18566,10 @@
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="198"/>
       <c r="B303" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C303" s="84" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D303" s="3" t="n">
         <v>44049</v>
@@ -18550,19 +18602,19 @@
         <v>22</v>
       </c>
       <c r="V303" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="W303" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="304" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="128"/>
       <c r="B304" s="42" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C304" s="42" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D304" s="81" t="n">
         <v>44049</v>
@@ -18599,7 +18651,7 @@
         <v>22</v>
       </c>
       <c r="V304" s="47" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AMI304" s="50"/>
       <c r="AMJ304" s="50"/>
@@ -18607,10 +18659,10 @@
     <row r="305" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="128"/>
       <c r="B305" s="42" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C305" s="42" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D305" s="81" t="n">
         <v>44049</v>
@@ -18647,7 +18699,7 @@
         <v>22</v>
       </c>
       <c r="V305" s="47" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AMI305" s="50"/>
       <c r="AMJ305" s="50"/>
@@ -18655,10 +18707,10 @@
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="198"/>
       <c r="B306" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C306" s="84" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D306" s="3" t="n">
         <v>44049</v>
@@ -18691,19 +18743,19 @@
         <v>22</v>
       </c>
       <c r="V306" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="W306" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="198"/>
       <c r="B307" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C307" s="84" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D307" s="3" t="n">
         <v>44049</v>
@@ -18736,16 +18788,16 @@
         <v>22</v>
       </c>
       <c r="W307" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="198"/>
       <c r="B308" s="84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C308" s="84" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D308" s="3" t="n">
         <v>44049</v>
@@ -18778,16 +18830,16 @@
         <v>22</v>
       </c>
       <c r="W308" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="309" s="212" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="203"/>
       <c r="B309" s="204" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C309" s="204" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D309" s="205" t="n">
         <v>44049</v>
@@ -18799,7 +18851,7 @@
         <v>40</v>
       </c>
       <c r="G309" s="211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H309" s="209"/>
       <c r="I309" s="209"/>
@@ -18826,10 +18878,10 @@
     <row r="310" s="212" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="203"/>
       <c r="B310" s="204" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C310" s="204" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D310" s="205" t="n">
         <v>44049</v>
@@ -18841,7 +18893,7 @@
         <v>40</v>
       </c>
       <c r="G310" s="211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H310" s="209"/>
       <c r="I310" s="209"/>
@@ -18868,10 +18920,10 @@
     <row r="311" customFormat="false" ht="94.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="198"/>
       <c r="B311" s="194" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C311" s="194" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D311" s="214" t="n">
         <v>44049</v>
@@ -18884,10 +18936,10 @@
       </c>
       <c r="G311" s="23"/>
       <c r="H311" s="23" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I311" s="23" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J311" s="197" t="s">
         <v>25</v>
@@ -18949,13 +19001,13 @@
     </row>
     <row r="314" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="128" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C314" s="42" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D314" s="81" t="n">
         <v>44012</v>
@@ -18996,7 +19048,7 @@
       </c>
       <c r="U314" s="49"/>
       <c r="V314" s="49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AMI314" s="50"/>
       <c r="AMJ314" s="50"/>
@@ -19004,10 +19056,10 @@
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="219"/>
       <c r="B315" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C315" s="84" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D315" s="3" t="n">
         <v>44012</v>
@@ -19045,10 +19097,10 @@
       </c>
       <c r="U315" s="0"/>
       <c r="V315" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="W315" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="X315" s="0"/>
       <c r="Y315" s="0"/>
@@ -19057,10 +19109,10 @@
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="219"/>
       <c r="B316" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C316" s="84" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D316" s="3" t="n">
         <v>44012</v>
@@ -19098,7 +19150,7 @@
       </c>
       <c r="U316" s="88"/>
       <c r="V316" s="88" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="W316" s="8" t="s">
         <v>126</v>
@@ -19107,10 +19159,10 @@
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="219"/>
       <c r="B317" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C317" s="84" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D317" s="3" t="n">
         <v>44012</v>
@@ -19148,19 +19200,19 @@
       </c>
       <c r="U317" s="88"/>
       <c r="V317" s="88" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="W317" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="41.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="219"/>
       <c r="B318" s="194" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C318" s="194" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D318" s="195"/>
       <c r="E318" s="196"/>
@@ -19170,7 +19222,7 @@
       <c r="G318" s="23"/>
       <c r="H318" s="23"/>
       <c r="I318" s="23" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J318" s="26"/>
       <c r="K318" s="23"/>
@@ -19191,10 +19243,10 @@
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="219"/>
       <c r="B319" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C319" s="84" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D319" s="3" t="n">
         <v>44012</v>
@@ -19232,16 +19284,16 @@
       </c>
       <c r="U319" s="88"/>
       <c r="V319" s="88" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="219"/>
       <c r="B320" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C320" s="84" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D320" s="3" t="n">
         <v>44012</v>
@@ -19280,16 +19332,16 @@
       <c r="U320" s="88"/>
       <c r="V320" s="88"/>
       <c r="W320" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="321" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="128"/>
       <c r="B321" s="42" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D321" s="81" t="n">
         <v>44012</v>
@@ -19330,7 +19382,7 @@
       </c>
       <c r="U321" s="49"/>
       <c r="V321" s="49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AMI321" s="50"/>
       <c r="AMJ321" s="50"/>
@@ -19338,10 +19390,10 @@
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="219"/>
       <c r="B322" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C322" s="84" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D322" s="3" t="n">
         <v>44012</v>
@@ -19383,10 +19435,10 @@
     <row r="323" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="130"/>
       <c r="B323" s="69" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C323" s="69" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D323" s="75" t="n">
         <v>44012</v>
@@ -19427,10 +19479,10 @@
       </c>
       <c r="U323" s="76"/>
       <c r="V323" s="76" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="W323" s="74" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AMI323" s="77"/>
       <c r="AMJ323" s="77"/>
@@ -19438,10 +19490,10 @@
     <row r="324" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="128"/>
       <c r="B324" s="42" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D324" s="81" t="n">
         <v>44012</v>
@@ -19482,7 +19534,7 @@
       </c>
       <c r="U324" s="49"/>
       <c r="V324" s="49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AMI324" s="50"/>
       <c r="AMJ324" s="50"/>
@@ -19490,10 +19542,10 @@
     <row r="325" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="130"/>
       <c r="B325" s="69" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C325" s="69" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D325" s="75" t="n">
         <v>44005</v>
@@ -19534,10 +19586,10 @@
       </c>
       <c r="U325" s="76"/>
       <c r="V325" s="76" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="W325" s="74" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AMI325" s="77"/>
       <c r="AMJ325" s="77"/>
@@ -19545,10 +19597,10 @@
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="219"/>
       <c r="B326" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C326" s="84" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D326" s="3" t="n">
         <v>44005</v>
@@ -19587,16 +19639,16 @@
       <c r="U326" s="88"/>
       <c r="V326" s="88"/>
       <c r="W326" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="219"/>
       <c r="B327" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C327" s="84" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D327" s="3" t="n">
         <v>44005</v>
@@ -19634,7 +19686,7 @@
       </c>
       <c r="U327" s="88"/>
       <c r="V327" s="88" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="W327" s="8" t="s">
         <v>126</v>
@@ -19643,10 +19695,10 @@
     <row r="328" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="128"/>
       <c r="B328" s="42" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D328" s="81" t="n">
         <v>44005</v>
@@ -19687,7 +19739,7 @@
       </c>
       <c r="U328" s="49"/>
       <c r="V328" s="49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AMI328" s="50"/>
       <c r="AMJ328" s="50"/>
@@ -19695,10 +19747,10 @@
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="219"/>
       <c r="B329" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C329" s="84" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D329" s="3" t="n">
         <v>44005</v>
@@ -19736,19 +19788,19 @@
       </c>
       <c r="U329" s="88"/>
       <c r="V329" s="88" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="W329" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="219"/>
       <c r="B330" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C330" s="84" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D330" s="3" t="n">
         <v>44005</v>
@@ -19786,7 +19838,7 @@
       </c>
       <c r="U330" s="88"/>
       <c r="V330" s="88" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="W330" s="8" t="s">
         <v>251</v>
@@ -19795,10 +19847,10 @@
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="219"/>
       <c r="B331" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C331" s="84" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D331" s="3" t="n">
         <v>44005</v>
@@ -19836,19 +19888,19 @@
       </c>
       <c r="U331" s="88"/>
       <c r="V331" s="88" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="W331" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="332" s="212" customFormat="true" ht="41.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="203"/>
       <c r="B332" s="204" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C332" s="204" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D332" s="205" t="n">
         <v>44005</v>
@@ -19861,7 +19913,7 @@
       </c>
       <c r="G332" s="209"/>
       <c r="H332" s="209" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I332" s="209"/>
       <c r="J332" s="205" t="n">
@@ -19889,10 +19941,10 @@
     <row r="333" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="138"/>
       <c r="B333" s="93" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C333" s="93" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D333" s="140" t="n">
         <v>44005</v>
@@ -19932,7 +19984,7 @@
         <v>40</v>
       </c>
       <c r="U333" s="100" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="V333" s="100"/>
       <c r="AMI333" s="101"/>
@@ -19941,10 +19993,10 @@
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="219"/>
       <c r="B334" s="84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C334" s="84" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D334" s="3" t="n">
         <v>44005</v>
@@ -19982,10 +20034,10 @@
       </c>
       <c r="U334" s="88"/>
       <c r="V334" s="88" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="W334" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="335" s="112" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20028,10 +20080,10 @@
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="219"/>
       <c r="B336" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C336" s="84" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D336" s="3" t="n">
         <v>43984</v>
@@ -20069,19 +20121,19 @@
       </c>
       <c r="U336" s="88"/>
       <c r="V336" s="88" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="W336" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="337" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="138"/>
       <c r="B337" s="93" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C337" s="93" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D337" s="140" t="n">
         <v>43984</v>
@@ -20121,7 +20173,7 @@
         <v>40</v>
       </c>
       <c r="U337" s="100" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="V337" s="100"/>
       <c r="AMI337" s="101"/>
@@ -20130,10 +20182,10 @@
     <row r="338" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="128"/>
       <c r="B338" s="42" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C338" s="42" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D338" s="81" t="n">
         <v>43984</v>
@@ -20174,7 +20226,7 @@
       </c>
       <c r="U338" s="49"/>
       <c r="V338" s="49" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AMI338" s="50"/>
       <c r="AMJ338" s="50"/>
@@ -20182,10 +20234,10 @@
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="219"/>
       <c r="B339" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C339" s="84" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D339" s="3" t="n">
         <v>43984</v>
@@ -20224,16 +20276,16 @@
       <c r="U339" s="88"/>
       <c r="V339" s="88"/>
       <c r="W339" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="219"/>
       <c r="B340" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C340" s="84" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D340" s="3" t="n">
         <v>43984</v>
@@ -20271,19 +20323,19 @@
       </c>
       <c r="U340" s="88"/>
       <c r="V340" s="88" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="W340" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="341" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="128"/>
       <c r="B341" s="42" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C341" s="42" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D341" s="81" t="n">
         <v>43984</v>
@@ -20324,7 +20376,7 @@
       </c>
       <c r="U341" s="49"/>
       <c r="V341" s="49" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AMI341" s="50"/>
       <c r="AMJ341" s="50"/>
@@ -20332,10 +20384,10 @@
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="219"/>
       <c r="B342" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C342" s="84" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D342" s="3" t="n">
         <v>43984</v>
@@ -20373,19 +20425,19 @@
       </c>
       <c r="U342" s="88"/>
       <c r="V342" s="88" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="W342" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="343" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="130"/>
       <c r="B343" s="69" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C343" s="69" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D343" s="75" t="n">
         <v>43984</v>
@@ -20426,10 +20478,10 @@
       </c>
       <c r="U343" s="76"/>
       <c r="V343" s="76" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="W343" s="74" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AMI343" s="77"/>
       <c r="AMJ343" s="77"/>
@@ -20437,10 +20489,10 @@
     <row r="344" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="128"/>
       <c r="B344" s="42" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C344" s="42" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D344" s="81" t="n">
         <v>43984</v>
@@ -20481,7 +20533,7 @@
       </c>
       <c r="U344" s="49"/>
       <c r="V344" s="49" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AMI344" s="50"/>
       <c r="AMJ344" s="50"/>
@@ -20489,10 +20541,10 @@
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="219"/>
       <c r="B345" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C345" s="84" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D345" s="3" t="n">
         <v>43984</v>
@@ -20530,19 +20582,19 @@
       </c>
       <c r="U345" s="88"/>
       <c r="V345" s="88" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="W345" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="346" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="138"/>
       <c r="B346" s="93" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C346" s="93" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D346" s="140" t="n">
         <v>43984</v>
@@ -20582,7 +20634,7 @@
         <v>40</v>
       </c>
       <c r="U346" s="100" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V346" s="100"/>
       <c r="W346" s="98" t="s">
@@ -20594,10 +20646,10 @@
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="219"/>
       <c r="B347" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C347" s="84" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D347" s="3" t="n">
         <v>43984</v>
@@ -20636,16 +20688,16 @@
       <c r="U347" s="88"/>
       <c r="V347" s="88"/>
       <c r="W347" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="219"/>
       <c r="B348" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C348" s="84" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D348" s="3" t="n">
         <v>43984</v>
@@ -20683,16 +20735,16 @@
       </c>
       <c r="U348" s="88"/>
       <c r="V348" s="88" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="349" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="128"/>
       <c r="B349" s="42" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C349" s="42" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D349" s="81" t="n">
         <v>43984</v>
@@ -20733,7 +20785,7 @@
       </c>
       <c r="U349" s="49"/>
       <c r="V349" s="49" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AMI349" s="50"/>
       <c r="AMJ349" s="50"/>
@@ -20741,10 +20793,10 @@
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="219"/>
       <c r="B350" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C350" s="84" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D350" s="3" t="n">
         <v>43984</v>
@@ -20785,16 +20837,16 @@
         <v>179</v>
       </c>
       <c r="W350" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="351" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="124"/>
       <c r="B351" s="29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C351" s="29" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D351" s="35" t="n">
         <v>43984</v>
@@ -20835,10 +20887,10 @@
       </c>
       <c r="U351" s="36"/>
       <c r="V351" s="36" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="W351" s="34" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AMI351" s="37"/>
       <c r="AMJ351" s="37"/>
@@ -20846,10 +20898,10 @@
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="219"/>
       <c r="B352" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C352" s="84" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D352" s="3" t="n">
         <v>43984</v>
@@ -20886,10 +20938,10 @@
         <v>22</v>
       </c>
       <c r="U352" s="88" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="V352" s="88" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="W352" s="8" t="s">
         <v>126</v>
@@ -20898,10 +20950,10 @@
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="219"/>
       <c r="B353" s="84" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C353" s="84" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D353" s="3" t="n">
         <v>43984</v>
@@ -20939,19 +20991,19 @@
       </c>
       <c r="U353" s="88"/>
       <c r="V353" s="88" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="W353" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="354" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="138"/>
       <c r="B354" s="93" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C354" s="93" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D354" s="140" t="n">
         <v>43984</v>
@@ -20991,7 +21043,7 @@
         <v>40</v>
       </c>
       <c r="U354" s="100" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V354" s="100"/>
       <c r="AMI354" s="101"/>
@@ -21000,10 +21052,10 @@
     <row r="355" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="128"/>
       <c r="B355" s="42" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C355" s="42" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D355" s="81" t="n">
         <v>43984</v>
@@ -21044,7 +21096,7 @@
       </c>
       <c r="U355" s="49"/>
       <c r="V355" s="49" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AMI355" s="50"/>
       <c r="AMJ355" s="50"/>
@@ -21087,10 +21139,10 @@
     <row r="357" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="138"/>
       <c r="B357" s="93" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C357" s="93" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D357" s="140" t="n">
         <v>43984</v>
@@ -21130,7 +21182,7 @@
         <v>40</v>
       </c>
       <c r="U357" s="100" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V357" s="100"/>
       <c r="AMI357" s="101"/>
@@ -21139,10 +21191,10 @@
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="219"/>
       <c r="B358" s="84" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C358" s="84" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D358" s="3" t="n">
         <v>43984</v>
@@ -21183,7 +21235,7 @@
         <v>179</v>
       </c>
       <c r="W358" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21224,10 +21276,10 @@
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="219"/>
       <c r="B360" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C360" s="84" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D360" s="3" t="n">
         <v>43983</v>
@@ -21268,16 +21320,16 @@
         <v>179</v>
       </c>
       <c r="W360" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="219"/>
       <c r="B361" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C361" s="84" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D361" s="3" t="n">
         <v>43983</v>
@@ -21319,16 +21371,16 @@
         <v>179</v>
       </c>
       <c r="W361" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="362" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="138"/>
       <c r="B362" s="93" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C362" s="93" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D362" s="140" t="n">
         <v>43983</v>
@@ -21368,7 +21420,7 @@
         <v>22</v>
       </c>
       <c r="U362" s="100" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="V362" s="100"/>
       <c r="AMI362" s="101"/>
@@ -21377,10 +21429,10 @@
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="219"/>
       <c r="B363" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C363" s="84" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D363" s="3" t="n">
         <v>43983</v>
@@ -21418,19 +21470,19 @@
       </c>
       <c r="U363" s="88"/>
       <c r="V363" s="88" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="W363" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="364" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="128"/>
       <c r="B364" s="42" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C364" s="42" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D364" s="81" t="n">
         <v>43983</v>
@@ -21471,10 +21523,10 @@
       </c>
       <c r="U364" s="49"/>
       <c r="V364" s="49" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="W364" s="47" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AMI364" s="50"/>
       <c r="AMJ364" s="50"/>
@@ -21482,10 +21534,10 @@
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="219"/>
       <c r="B365" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C365" s="84" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D365" s="3" t="n">
         <v>43983</v>
@@ -21524,7 +21576,7 @@
       <c r="U365" s="88"/>
       <c r="V365" s="88"/>
       <c r="W365" s="88" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21562,10 +21614,10 @@
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="219"/>
       <c r="B367" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C367" s="84" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D367" s="3" t="n">
         <v>43983</v>
@@ -21604,16 +21656,16 @@
       <c r="U367" s="88"/>
       <c r="V367" s="88"/>
       <c r="W367" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="219"/>
       <c r="B368" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C368" s="84" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D368" s="3" t="n">
         <v>43983</v>
@@ -21652,16 +21704,16 @@
       <c r="U368" s="88"/>
       <c r="V368" s="88"/>
       <c r="W368" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="369" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="117"/>
       <c r="B369" s="55" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C369" s="55" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D369" s="61" t="n">
         <v>43983</v>
@@ -21701,10 +21753,10 @@
         <v>40</v>
       </c>
       <c r="U369" s="62" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="V369" s="62" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AMI369" s="63"/>
       <c r="AMJ369" s="63"/>
@@ -21712,10 +21764,10 @@
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="219"/>
       <c r="B370" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C370" s="84" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D370" s="3" t="n">
         <v>43983</v>
@@ -21756,16 +21808,16 @@
         <v>179</v>
       </c>
       <c r="W370" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="219"/>
       <c r="B371" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C371" s="84" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D371" s="3" t="n">
         <v>43983</v>
@@ -21804,16 +21856,16 @@
       <c r="U371" s="88"/>
       <c r="V371" s="88"/>
       <c r="W371" s="88" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="219"/>
       <c r="B372" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C372" s="84" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D372" s="3" t="n">
         <v>43983</v>
@@ -21852,7 +21904,7 @@
       <c r="U372" s="88"/>
       <c r="V372" s="88"/>
       <c r="W372" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21909,13 +21961,13 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="198" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B375" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C375" s="84" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D375" s="3" t="n">
         <v>44054</v>
@@ -21927,7 +21979,7 @@
         <v>22</v>
       </c>
       <c r="J375" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K375" s="8" t="s">
         <v>33</v>
@@ -21954,16 +22006,16 @@
         <v>22</v>
       </c>
       <c r="W375" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="198"/>
       <c r="B376" s="84" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C376" s="84" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D376" s="3" t="n">
         <v>44054</v>
@@ -21975,7 +22027,7 @@
         <v>22</v>
       </c>
       <c r="J376" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K376" s="8" t="s">
         <v>33</v>
@@ -22002,7 +22054,7 @@
         <v>22</v>
       </c>
       <c r="W376" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22040,10 +22092,10 @@
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="198"/>
       <c r="B378" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D378" s="3" t="n">
         <v>44054</v>
@@ -22076,16 +22128,16 @@
         <v>22</v>
       </c>
       <c r="W378" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="198"/>
       <c r="B379" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D379" s="3" t="n">
         <v>44054</v>
@@ -22118,19 +22170,19 @@
         <v>22</v>
       </c>
       <c r="V379" s="88" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="W379" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="198"/>
       <c r="B380" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D380" s="3" t="n">
         <v>44054</v>
@@ -22159,10 +22211,10 @@
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="198"/>
       <c r="B381" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D381" s="3" t="n">
         <v>44054</v>
@@ -22196,16 +22248,16 @@
       </c>
       <c r="V381" s="0"/>
       <c r="W381" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="198"/>
       <c r="B382" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D382" s="3" t="n">
         <v>44054</v>
@@ -22233,10 +22285,10 @@
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="198"/>
       <c r="B383" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D383" s="3" t="n">
         <v>44054</v>
@@ -22269,19 +22321,19 @@
         <v>22</v>
       </c>
       <c r="V383" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="W383" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="384" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="128"/>
       <c r="B384" s="42" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C384" s="41" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D384" s="81" t="n">
         <v>44054</v>
@@ -22318,10 +22370,10 @@
         <v>22</v>
       </c>
       <c r="V384" s="47" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="W384" s="47" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AMI384" s="50"/>
       <c r="AMJ384" s="50"/>
@@ -22329,10 +22381,10 @@
     <row r="385" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="128"/>
       <c r="B385" s="42" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C385" s="42" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D385" s="81" t="n">
         <v>44054</v>
@@ -22369,7 +22421,7 @@
         <v>22</v>
       </c>
       <c r="V385" s="47" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AMI385" s="50"/>
       <c r="AMJ385" s="50"/>
@@ -22377,10 +22429,10 @@
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="198"/>
       <c r="B386" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C386" s="84" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D386" s="3" t="n">
         <v>44054</v>
@@ -22407,10 +22459,10 @@
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="198"/>
       <c r="B387" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C387" s="84" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D387" s="3" t="n">
         <v>44054</v>
@@ -22437,10 +22489,10 @@
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="198"/>
       <c r="B388" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C388" s="84" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D388" s="3" t="n">
         <v>44054</v>
@@ -22467,10 +22519,10 @@
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="198"/>
       <c r="B389" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C389" s="84" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D389" s="3" t="n">
         <v>44054</v>
@@ -22497,10 +22549,10 @@
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="198"/>
       <c r="B390" s="84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C390" s="84" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D390" s="3" t="n">
         <v>44054</v>
@@ -22559,10 +22611,10 @@
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="198"/>
       <c r="B392" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C392" s="84" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D392" s="3" t="n">
         <v>44054</v>
@@ -22598,19 +22650,19 @@
         <v>22</v>
       </c>
       <c r="V392" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="W392" s="88" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="198"/>
       <c r="B393" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C393" s="84" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D393" s="3" t="n">
         <v>44054</v>
@@ -22646,19 +22698,19 @@
         <v>22</v>
       </c>
       <c r="V393" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="W393" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="198"/>
       <c r="B394" s="84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C394" s="84" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D394" s="3" t="n">
         <v>44054</v>
@@ -22694,16 +22746,16 @@
         <v>22</v>
       </c>
       <c r="W394" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="395" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="138"/>
       <c r="B395" s="93" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C395" s="93" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D395" s="140" t="n">
         <v>44054</v>
@@ -22734,10 +22786,10 @@
       </c>
       <c r="R395" s="102"/>
       <c r="U395" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W395" s="98" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AMI395" s="101"/>
       <c r="AMJ395" s="101"/>
@@ -22777,10 +22829,10 @@
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="198"/>
       <c r="B397" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C397" s="84" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D397" s="3" t="n">
         <v>44048</v>
@@ -22813,10 +22865,10 @@
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="198"/>
       <c r="B398" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C398" s="84" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D398" s="3" t="n">
         <v>44048</v>
@@ -22849,10 +22901,10 @@
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="198"/>
       <c r="B399" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C399" s="84" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D399" s="3" t="n">
         <v>44048</v>
@@ -22885,10 +22937,10 @@
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="198"/>
       <c r="B400" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C400" s="84" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D400" s="3" t="n">
         <v>44048</v>
@@ -22921,10 +22973,10 @@
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="198"/>
       <c r="B401" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C401" s="84" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D401" s="3" t="n">
         <v>44048</v>
@@ -22957,10 +23009,10 @@
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="198"/>
       <c r="B402" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C402" s="84" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D402" s="3" t="n">
         <v>44048</v>
@@ -22993,10 +23045,10 @@
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="198"/>
       <c r="B403" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C403" s="84" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D403" s="3" t="n">
         <v>44048</v>
@@ -23029,10 +23081,10 @@
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="198"/>
       <c r="B404" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C404" s="84" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D404" s="3" t="n">
         <v>44048</v>
@@ -23065,10 +23117,10 @@
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="198"/>
       <c r="B405" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C405" s="84" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D405" s="3" t="n">
         <v>44048</v>
@@ -23101,10 +23153,10 @@
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="198"/>
       <c r="B406" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C406" s="84" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D406" s="3" t="n">
         <v>44048</v>
@@ -23137,10 +23189,10 @@
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="198"/>
       <c r="B407" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C407" s="84" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D407" s="3" t="n">
         <v>44048</v>
@@ -23176,10 +23228,10 @@
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="198"/>
       <c r="B408" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C408" s="84" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D408" s="3" t="n">
         <v>44048</v>
@@ -23209,10 +23261,10 @@
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="198"/>
       <c r="B409" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C409" s="84" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D409" s="3" t="n">
         <v>44048</v>
@@ -23248,10 +23300,10 @@
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="198"/>
       <c r="B410" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C410" s="84" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D410" s="3" t="n">
         <v>44048</v>
@@ -23284,10 +23336,10 @@
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="198"/>
       <c r="B411" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C411" s="84" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D411" s="3" t="n">
         <v>44048</v>
@@ -23323,10 +23375,10 @@
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="198"/>
       <c r="B412" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C412" s="84" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D412" s="3" t="n">
         <v>44048</v>
@@ -23359,10 +23411,10 @@
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="198"/>
       <c r="B413" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C413" s="84" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D413" s="3" t="n">
         <v>44048</v>
@@ -23395,10 +23447,10 @@
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="198"/>
       <c r="B414" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C414" s="84" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D414" s="3" t="n">
         <v>44048</v>
@@ -23431,10 +23483,10 @@
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="198"/>
       <c r="B415" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C415" s="84" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D415" s="3" t="n">
         <v>44048</v>
@@ -23467,10 +23519,10 @@
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="198"/>
       <c r="B416" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C416" s="84" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D416" s="3" t="n">
         <v>44048</v>
@@ -23503,10 +23555,10 @@
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="198"/>
       <c r="B417" s="84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C417" s="84" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D417" s="3" t="n">
         <v>44048</v>
@@ -23571,10 +23623,10 @@
     <row r="419" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="124"/>
       <c r="B419" s="29" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C419" s="29" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D419" s="35" t="n">
         <v>44054</v>
@@ -23611,10 +23663,10 @@
         <v>22</v>
       </c>
       <c r="V419" s="34" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="W419" s="34" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AMI419" s="37"/>
       <c r="AMJ419" s="37"/>
@@ -23622,10 +23674,10 @@
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="198"/>
       <c r="B420" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C420" s="84" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D420" s="3" t="n">
         <v>44054</v>
@@ -23658,19 +23710,19 @@
         <v>22</v>
       </c>
       <c r="V420" s="88" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="W420" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="198"/>
       <c r="B421" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C421" s="84" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D421" s="3" t="n">
         <v>44054</v>
@@ -23703,16 +23755,16 @@
         <v>22</v>
       </c>
       <c r="W421" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="422" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="124"/>
       <c r="B422" s="29" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C422" s="29" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D422" s="35" t="n">
         <v>44054</v>
@@ -23749,10 +23801,10 @@
         <v>22</v>
       </c>
       <c r="V422" s="34" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="W422" s="34" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AMI422" s="37"/>
       <c r="AMJ422" s="37"/>
@@ -23760,10 +23812,10 @@
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="198"/>
       <c r="B423" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C423" s="84" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D423" s="3" t="n">
         <v>44054</v>
@@ -23799,16 +23851,16 @@
         <v>179</v>
       </c>
       <c r="W423" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="198"/>
       <c r="B424" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C424" s="84" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D424" s="3" t="n">
         <v>44054</v>
@@ -23841,19 +23893,19 @@
         <v>22</v>
       </c>
       <c r="V424" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="W424" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="198"/>
       <c r="B425" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C425" s="84" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D425" s="3" t="n">
         <v>44054</v>
@@ -23886,16 +23938,16 @@
         <v>22</v>
       </c>
       <c r="W425" s="88" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="426" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="130"/>
       <c r="B426" s="69" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C426" s="69" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D426" s="75" t="n">
         <v>44054</v>
@@ -23932,10 +23984,10 @@
         <v>22</v>
       </c>
       <c r="V426" s="74" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="W426" s="76" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AMI426" s="77"/>
       <c r="AMJ426" s="77"/>
@@ -23943,10 +23995,10 @@
     <row r="427" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="117"/>
       <c r="B427" s="55" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C427" s="55" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D427" s="61" t="n">
         <v>44054</v>
@@ -23983,10 +24035,10 @@
         <v>22</v>
       </c>
       <c r="V427" s="60" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="W427" s="60" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AMI427" s="63"/>
       <c r="AMJ427" s="63"/>
@@ -23994,10 +24046,10 @@
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="198"/>
       <c r="B428" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C428" s="84" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D428" s="3" t="n">
         <v>44054</v>
@@ -24030,16 +24082,16 @@
         <v>22</v>
       </c>
       <c r="W428" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="429" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="124"/>
       <c r="B429" s="29" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C429" s="29" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D429" s="35" t="n">
         <v>44054</v>
@@ -24076,10 +24128,10 @@
         <v>22</v>
       </c>
       <c r="V429" s="34" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="W429" s="34" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AMI429" s="37"/>
       <c r="AMJ429" s="37"/>
@@ -24087,10 +24139,10 @@
     <row r="430" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="130"/>
       <c r="B430" s="69" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C430" s="69" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D430" s="75" t="n">
         <v>44054</v>
@@ -24127,10 +24179,10 @@
         <v>22</v>
       </c>
       <c r="V430" s="74" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="W430" s="74" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AMI430" s="77"/>
       <c r="AMJ430" s="77"/>
@@ -24138,10 +24190,10 @@
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="198"/>
       <c r="B431" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C431" s="84" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D431" s="3" t="n">
         <v>44054</v>
@@ -24174,16 +24226,16 @@
         <v>22</v>
       </c>
       <c r="W431" s="8" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="198"/>
       <c r="B432" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C432" s="84" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D432" s="3" t="n">
         <v>44054</v>
@@ -24216,19 +24268,19 @@
         <v>22</v>
       </c>
       <c r="V432" s="8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="W432" s="8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="198"/>
       <c r="B433" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C433" s="84" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D433" s="3" t="n">
         <v>44054</v>
@@ -24264,16 +24316,16 @@
         <v>179</v>
       </c>
       <c r="W433" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="198"/>
       <c r="B434" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C434" s="84" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D434" s="3" t="n">
         <v>44054</v>
@@ -24306,16 +24358,16 @@
         <v>22</v>
       </c>
       <c r="W434" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="198"/>
       <c r="B435" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C435" s="84" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D435" s="3" t="n">
         <v>44054</v>
@@ -24348,16 +24400,16 @@
         <v>22</v>
       </c>
       <c r="W435" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="436" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="138"/>
       <c r="B436" s="93" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C436" s="93" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D436" s="140" t="n">
         <v>44054</v>
@@ -24394,7 +24446,7 @@
         <v>22</v>
       </c>
       <c r="U436" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AMI436" s="101"/>
       <c r="AMJ436" s="101"/>
@@ -24402,10 +24454,10 @@
     <row r="437" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="128"/>
       <c r="B437" s="42" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C437" s="42" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D437" s="81" t="n">
         <v>44054</v>
@@ -24442,10 +24494,10 @@
         <v>22</v>
       </c>
       <c r="V437" s="50" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="W437" s="50" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AMI437" s="50"/>
       <c r="AMJ437" s="50"/>
@@ -24453,10 +24505,10 @@
     <row r="438" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="128"/>
       <c r="B438" s="42" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C438" s="42" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D438" s="81" t="n">
         <v>44054</v>
@@ -24493,7 +24545,7 @@
         <v>22</v>
       </c>
       <c r="V438" s="47" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AMI438" s="50"/>
       <c r="AMJ438" s="50"/>
@@ -24501,10 +24553,10 @@
     <row r="439" s="98" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="138"/>
       <c r="B439" s="93" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C439" s="93" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D439" s="140" t="n">
         <v>44054</v>
@@ -24528,7 +24580,7 @@
         <v>22</v>
       </c>
       <c r="M439" s="98" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P439" s="102"/>
       <c r="R439" s="103" t="n">
@@ -24541,7 +24593,7 @@
         <v>22</v>
       </c>
       <c r="U439" s="98" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AMI439" s="101"/>
       <c r="AMJ439" s="101"/>
@@ -24549,10 +24601,10 @@
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="198"/>
       <c r="B440" s="84" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C440" s="84" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D440" s="3" t="n">
         <v>44054</v>
@@ -24585,7 +24637,7 @@
         <v>22</v>
       </c>
       <c r="W440" s="8" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24622,13 +24674,13 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="227" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B443" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C443" s="228" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E443" s="4" t="s">
         <v>35</v>
@@ -24661,10 +24713,10 @@
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="227"/>
       <c r="B444" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C444" s="228" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>35</v>
@@ -24697,10 +24749,10 @@
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="227"/>
       <c r="B445" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C445" s="228" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E445" s="4" t="s">
         <v>35</v>
@@ -24733,10 +24785,10 @@
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="227"/>
       <c r="B446" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C446" s="228" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E446" s="4" t="s">
         <v>35</v>
@@ -24769,10 +24821,10 @@
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="227"/>
       <c r="B447" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C447" s="228" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>35</v>
@@ -24805,10 +24857,10 @@
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="227"/>
       <c r="B448" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C448" s="228" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E448" s="4" t="s">
         <v>35</v>
@@ -24841,10 +24893,10 @@
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="227"/>
       <c r="B449" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C449" s="228" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E449" s="4" t="s">
         <v>35</v>
@@ -24877,10 +24929,10 @@
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="229"/>
       <c r="B450" s="230" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C450" s="230" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>35</v>
@@ -24904,10 +24956,10 @@
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="227"/>
       <c r="B451" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C451" s="228" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>35</v>
@@ -24940,10 +24992,10 @@
     <row r="452" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="231"/>
       <c r="B452" s="232" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C452" s="232" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D452" s="75"/>
       <c r="E452" s="144" t="s">
@@ -24978,7 +25030,7 @@
         <v>22</v>
       </c>
       <c r="U452" s="74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AMI452" s="77"/>
       <c r="AMJ452" s="77"/>
@@ -24986,10 +25038,10 @@
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="227"/>
       <c r="B453" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C453" s="228" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>35</v>
@@ -25022,10 +25074,10 @@
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="227"/>
       <c r="B454" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C454" s="228" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>35</v>
@@ -25058,10 +25110,10 @@
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="227"/>
       <c r="B455" s="228" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C455" s="228" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>35</v>
@@ -25126,10 +25178,10 @@
     <row r="457" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="233"/>
       <c r="B457" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C457" s="235" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D457" s="205"/>
       <c r="E457" s="206" t="s">
@@ -25137,7 +25189,7 @@
       </c>
       <c r="F457" s="207"/>
       <c r="G457" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H457" s="209"/>
       <c r="I457" s="209"/>
@@ -25154,10 +25206,10 @@
     <row r="458" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="233"/>
       <c r="B458" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C458" s="235" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D458" s="205"/>
       <c r="E458" s="206" t="s">
@@ -25165,7 +25217,7 @@
       </c>
       <c r="F458" s="207"/>
       <c r="G458" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H458" s="209"/>
       <c r="I458" s="209"/>
@@ -25182,10 +25234,10 @@
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="227"/>
       <c r="B459" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D459" s="3" t="n">
         <v>44082</v>
@@ -25215,10 +25267,10 @@
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="227"/>
       <c r="B460" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D460" s="3" t="n">
         <v>44082</v>
@@ -25248,10 +25300,10 @@
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="227"/>
       <c r="B461" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D461" s="3" t="n">
         <v>44082</v>
@@ -25281,10 +25333,10 @@
     <row r="462" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="233"/>
       <c r="B462" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C462" s="235" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D462" s="205"/>
       <c r="E462" s="206" t="s">
@@ -25292,7 +25344,7 @@
       </c>
       <c r="F462" s="207"/>
       <c r="G462" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H462" s="209"/>
       <c r="I462" s="209"/>
@@ -25309,10 +25361,10 @@
     <row r="463" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="233"/>
       <c r="B463" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C463" s="235" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D463" s="205"/>
       <c r="E463" s="206" t="s">
@@ -25320,7 +25372,7 @@
       </c>
       <c r="F463" s="207"/>
       <c r="G463" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H463" s="209"/>
       <c r="I463" s="209"/>
@@ -25337,10 +25389,10 @@
     <row r="464" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="233"/>
       <c r="B464" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C464" s="235" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D464" s="205"/>
       <c r="E464" s="206" t="s">
@@ -25348,7 +25400,7 @@
       </c>
       <c r="F464" s="207"/>
       <c r="G464" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H464" s="209"/>
       <c r="I464" s="209"/>
@@ -25365,10 +25417,10 @@
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="227"/>
       <c r="B465" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D465" s="3" t="n">
         <v>44082</v>
@@ -25398,10 +25450,10 @@
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="227"/>
       <c r="B466" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D466" s="3" t="n">
         <v>44082</v>
@@ -25431,10 +25483,10 @@
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="227"/>
       <c r="B467" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D467" s="3" t="n">
         <v>44082</v>
@@ -25464,10 +25516,10 @@
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="227"/>
       <c r="B468" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D468" s="3" t="n">
         <v>44082</v>
@@ -25497,10 +25549,10 @@
     <row r="469" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="233"/>
       <c r="B469" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C469" s="235" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D469" s="205"/>
       <c r="E469" s="206" t="s">
@@ -25508,7 +25560,7 @@
       </c>
       <c r="F469" s="207"/>
       <c r="G469" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H469" s="209"/>
       <c r="I469" s="209"/>
@@ -25525,10 +25577,10 @@
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="227"/>
       <c r="B470" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D470" s="3" t="n">
         <v>44082</v>
@@ -25558,10 +25610,10 @@
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="227"/>
       <c r="B471" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D471" s="3" t="n">
         <v>44082</v>
@@ -25591,10 +25643,10 @@
     <row r="472" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="233"/>
       <c r="B472" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C472" s="235" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D472" s="205"/>
       <c r="E472" s="206" t="s">
@@ -25602,7 +25654,7 @@
       </c>
       <c r="F472" s="207"/>
       <c r="G472" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H472" s="209"/>
       <c r="I472" s="209"/>
@@ -25619,10 +25671,10 @@
     <row r="473" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="233"/>
       <c r="B473" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C473" s="235" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D473" s="205"/>
       <c r="E473" s="206" t="s">
@@ -25630,7 +25682,7 @@
       </c>
       <c r="F473" s="207"/>
       <c r="G473" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H473" s="209"/>
       <c r="I473" s="209"/>
@@ -25647,10 +25699,10 @@
     <row r="474" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="233"/>
       <c r="B474" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C474" s="235" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D474" s="205"/>
       <c r="E474" s="206" t="s">
@@ -25658,7 +25710,7 @@
       </c>
       <c r="F474" s="207"/>
       <c r="G474" s="209" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H474" s="209"/>
       <c r="I474" s="209"/>
@@ -25675,10 +25727,10 @@
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="227"/>
       <c r="B475" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D475" s="3" t="n">
         <v>44084</v>
@@ -25708,10 +25760,10 @@
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="227"/>
       <c r="B476" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D476" s="3" t="n">
         <v>44084</v>
@@ -25741,10 +25793,10 @@
     <row r="477" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="233"/>
       <c r="B477" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C477" s="235" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D477" s="205"/>
       <c r="E477" s="206" t="s">
@@ -25752,7 +25804,7 @@
       </c>
       <c r="F477" s="207"/>
       <c r="G477" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H477" s="209"/>
       <c r="I477" s="209"/>
@@ -25769,10 +25821,10 @@
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="227"/>
       <c r="B478" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D478" s="3" t="n">
         <v>44084</v>
@@ -25802,10 +25854,10 @@
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="227"/>
       <c r="B479" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D479" s="3" t="n">
         <v>44084</v>
@@ -25835,10 +25887,10 @@
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="227"/>
       <c r="B480" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D480" s="3" t="n">
         <v>44084</v>
@@ -25868,10 +25920,10 @@
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="227"/>
       <c r="B481" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D481" s="3" t="n">
         <v>44084</v>
@@ -25901,10 +25953,10 @@
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="227"/>
       <c r="B482" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D482" s="3" t="n">
         <v>44084</v>
@@ -25934,10 +25986,10 @@
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="227"/>
       <c r="B483" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D483" s="3" t="n">
         <v>44084</v>
@@ -25967,10 +26019,10 @@
     <row r="484" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="233"/>
       <c r="B484" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C484" s="235" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D484" s="205"/>
       <c r="E484" s="206" t="s">
@@ -25978,7 +26030,7 @@
       </c>
       <c r="F484" s="207"/>
       <c r="G484" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H484" s="209"/>
       <c r="I484" s="209"/>
@@ -25995,10 +26047,10 @@
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="227"/>
       <c r="B485" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D485" s="3" t="n">
         <v>44084</v>
@@ -26028,10 +26080,10 @@
     <row r="486" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="233"/>
       <c r="B486" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C486" s="235" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D486" s="205"/>
       <c r="E486" s="206" t="s">
@@ -26039,7 +26091,7 @@
       </c>
       <c r="F486" s="207"/>
       <c r="G486" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H486" s="209"/>
       <c r="I486" s="209"/>
@@ -26056,10 +26108,10 @@
     <row r="487" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="233"/>
       <c r="B487" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C487" s="235" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D487" s="205"/>
       <c r="E487" s="206" t="s">
@@ -26067,7 +26119,7 @@
       </c>
       <c r="F487" s="207"/>
       <c r="G487" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H487" s="209"/>
       <c r="I487" s="209"/>
@@ -26084,10 +26136,10 @@
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="227"/>
       <c r="B488" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D488" s="3" t="n">
         <v>44084</v>
@@ -26117,10 +26169,10 @@
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="227"/>
       <c r="B489" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D489" s="3" t="n">
         <v>44084</v>
@@ -26150,10 +26202,10 @@
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="227"/>
       <c r="B490" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D490" s="3" t="n">
         <v>44085</v>
@@ -26183,10 +26235,10 @@
     <row r="491" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="233"/>
       <c r="B491" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C491" s="235" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D491" s="205"/>
       <c r="E491" s="206" t="s">
@@ -26194,7 +26246,7 @@
       </c>
       <c r="F491" s="207"/>
       <c r="G491" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H491" s="209"/>
       <c r="I491" s="209"/>
@@ -26211,10 +26263,10 @@
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="227"/>
       <c r="B492" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D492" s="3" t="n">
         <v>44085</v>
@@ -26244,17 +26296,17 @@
     <row r="493" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="227"/>
       <c r="B493" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F493" s="87"/>
       <c r="G493" s="6" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="K493" s="8" t="s">
         <v>35</v>
@@ -26264,10 +26316,10 @@
     <row r="494" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="233"/>
       <c r="B494" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C494" s="235" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D494" s="205"/>
       <c r="E494" s="206" t="s">
@@ -26275,7 +26327,7 @@
       </c>
       <c r="F494" s="207"/>
       <c r="G494" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H494" s="209"/>
       <c r="I494" s="209"/>
@@ -26302,10 +26354,10 @@
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="227"/>
       <c r="B495" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D495" s="3" t="n">
         <v>44085</v>
@@ -26323,10 +26375,10 @@
     <row r="496" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="233"/>
       <c r="B496" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C496" s="235" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D496" s="205"/>
       <c r="E496" s="206" t="s">
@@ -26334,7 +26386,7 @@
       </c>
       <c r="F496" s="207"/>
       <c r="G496" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H496" s="209"/>
       <c r="I496" s="209"/>
@@ -26350,10 +26402,10 @@
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="227"/>
       <c r="B497" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D497" s="3" t="n">
         <v>44085</v>
@@ -26383,10 +26435,10 @@
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="227"/>
       <c r="B498" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D498" s="3" t="n">
         <v>44085</v>
@@ -26416,10 +26468,10 @@
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="227"/>
       <c r="B499" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D499" s="3" t="n">
         <v>44085</v>
@@ -26449,10 +26501,10 @@
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="227"/>
       <c r="B500" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D500" s="3" t="n">
         <v>44085</v>
@@ -26482,10 +26534,10 @@
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="227"/>
       <c r="B501" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D501" s="3" t="n">
         <v>44085</v>
@@ -26515,10 +26567,10 @@
     <row r="502" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="233"/>
       <c r="B502" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C502" s="235" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D502" s="205"/>
       <c r="E502" s="206" t="s">
@@ -26526,7 +26578,7 @@
       </c>
       <c r="F502" s="207"/>
       <c r="G502" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H502" s="209"/>
       <c r="I502" s="209"/>
@@ -26542,10 +26594,10 @@
     <row r="503" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="233"/>
       <c r="B503" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C503" s="235" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D503" s="205"/>
       <c r="E503" s="206" t="s">
@@ -26553,7 +26605,7 @@
       </c>
       <c r="F503" s="207"/>
       <c r="G503" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H503" s="209"/>
       <c r="I503" s="209"/>
@@ -26569,10 +26621,10 @@
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="227"/>
       <c r="B504" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D504" s="3" t="n">
         <v>44085</v>
@@ -26602,10 +26654,10 @@
     <row r="505" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="227"/>
       <c r="B505" s="238" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C505" s="239" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D505" s="240" t="n">
         <v>44085</v>
@@ -26617,7 +26669,7 @@
         <v>25</v>
       </c>
       <c r="G505" s="243" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H505" s="243"/>
       <c r="I505" s="243"/>
@@ -26638,10 +26690,10 @@
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="227"/>
       <c r="B506" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D506" s="3" t="n">
         <v>44085</v>
@@ -26671,10 +26723,10 @@
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="227"/>
       <c r="B507" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D507" s="3" t="n">
         <v>44088</v>
@@ -26704,10 +26756,10 @@
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="227"/>
       <c r="B508" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D508" s="3" t="n">
         <v>44088</v>
@@ -26737,10 +26789,10 @@
     <row r="509" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="233"/>
       <c r="B509" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C509" s="235" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D509" s="205"/>
       <c r="E509" s="206" t="s">
@@ -26748,7 +26800,7 @@
       </c>
       <c r="F509" s="207"/>
       <c r="G509" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H509" s="209"/>
       <c r="I509" s="209"/>
@@ -26764,10 +26816,10 @@
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="227"/>
       <c r="B510" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D510" s="3" t="n">
         <v>44088</v>
@@ -26797,10 +26849,10 @@
     <row r="511" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="233"/>
       <c r="B511" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C511" s="235" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D511" s="205"/>
       <c r="E511" s="206" t="s">
@@ -26808,7 +26860,7 @@
       </c>
       <c r="F511" s="207"/>
       <c r="G511" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H511" s="209"/>
       <c r="I511" s="209"/>
@@ -26824,10 +26876,10 @@
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="227"/>
       <c r="B512" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D512" s="3" t="n">
         <v>44088</v>
@@ -26857,10 +26909,10 @@
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="227"/>
       <c r="B513" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D513" s="3" t="n">
         <v>44088</v>
@@ -26890,10 +26942,10 @@
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="227"/>
       <c r="B514" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D514" s="3" t="n">
         <v>44088</v>
@@ -26923,10 +26975,10 @@
     <row r="515" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="233"/>
       <c r="B515" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C515" s="235" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D515" s="205"/>
       <c r="E515" s="206" t="s">
@@ -26934,7 +26986,7 @@
       </c>
       <c r="F515" s="207"/>
       <c r="G515" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H515" s="209"/>
       <c r="I515" s="209"/>
@@ -26950,10 +27002,10 @@
     <row r="516" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="233"/>
       <c r="B516" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C516" s="235" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D516" s="205"/>
       <c r="E516" s="206" t="s">
@@ -26961,7 +27013,7 @@
       </c>
       <c r="F516" s="207"/>
       <c r="G516" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H516" s="209"/>
       <c r="I516" s="209"/>
@@ -26977,10 +27029,10 @@
     <row r="517" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="233"/>
       <c r="B517" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C517" s="235" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D517" s="205"/>
       <c r="E517" s="206" t="s">
@@ -26988,7 +27040,7 @@
       </c>
       <c r="F517" s="207"/>
       <c r="G517" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H517" s="209"/>
       <c r="I517" s="209"/>
@@ -27004,10 +27056,10 @@
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="227"/>
       <c r="B518" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D518" s="3" t="n">
         <v>44088</v>
@@ -27037,10 +27089,10 @@
     <row r="519" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="233"/>
       <c r="B519" s="234" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C519" s="235" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D519" s="205"/>
       <c r="E519" s="206" t="s">
@@ -27048,7 +27100,7 @@
       </c>
       <c r="F519" s="207"/>
       <c r="G519" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H519" s="209"/>
       <c r="I519" s="209"/>
@@ -27064,10 +27116,10 @@
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="227"/>
       <c r="B520" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D520" s="3" t="n">
         <v>44088</v>
@@ -27097,10 +27149,10 @@
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="227"/>
       <c r="B521" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D521" s="3" t="n">
         <v>44088</v>
@@ -27130,10 +27182,10 @@
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="227"/>
       <c r="B522" s="228" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D522" s="3" t="n">
         <v>44088</v>
@@ -27163,10 +27215,10 @@
     <row r="523" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="233"/>
       <c r="B523" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C523" s="246" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D523" s="247" t="n">
         <v>44082</v>
@@ -27192,10 +27244,10 @@
     <row r="524" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="233"/>
       <c r="B524" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C524" s="246" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D524" s="247" t="n">
         <v>44082</v>
@@ -27221,10 +27273,10 @@
     <row r="525" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="233"/>
       <c r="B525" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C525" s="246" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D525" s="247" t="n">
         <v>44082</v>
@@ -27250,10 +27302,10 @@
     <row r="526" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="233"/>
       <c r="B526" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C526" s="246" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D526" s="247" t="n">
         <v>44082</v>
@@ -27279,10 +27331,10 @@
     <row r="527" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="233"/>
       <c r="B527" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C527" s="246" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D527" s="247" t="n">
         <v>44082</v>
@@ -27308,10 +27360,10 @@
     <row r="528" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="233"/>
       <c r="B528" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C528" s="246" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D528" s="247" t="n">
         <v>44083</v>
@@ -27337,10 +27389,10 @@
     <row r="529" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="233"/>
       <c r="B529" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C529" s="246" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D529" s="247" t="n">
         <v>44083</v>
@@ -27366,10 +27418,10 @@
     <row r="530" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="233"/>
       <c r="B530" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C530" s="246" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D530" s="247" t="n">
         <v>44083</v>
@@ -27395,10 +27447,10 @@
     <row r="531" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="233"/>
       <c r="B531" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C531" s="246" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D531" s="247" t="n">
         <v>44083</v>
@@ -27424,10 +27476,10 @@
     <row r="532" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="233"/>
       <c r="B532" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C532" s="246" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D532" s="247" t="n">
         <v>44083</v>
@@ -27453,10 +27505,10 @@
     <row r="533" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="233"/>
       <c r="B533" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C533" s="246" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D533" s="247" t="n">
         <v>44083</v>
@@ -27482,10 +27534,10 @@
     <row r="534" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="233"/>
       <c r="B534" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C534" s="246" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D534" s="247" t="n">
         <v>44083</v>
@@ -27511,10 +27563,10 @@
     <row r="535" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="233"/>
       <c r="B535" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C535" s="246" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D535" s="247" t="n">
         <v>44084</v>
@@ -27540,10 +27592,10 @@
     <row r="536" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="233"/>
       <c r="B536" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C536" s="246" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D536" s="247" t="n">
         <v>44084</v>
@@ -27569,10 +27621,10 @@
     <row r="537" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="233"/>
       <c r="B537" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C537" s="246" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D537" s="247" t="n">
         <v>44084</v>
@@ -27598,10 +27650,10 @@
     <row r="538" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="233"/>
       <c r="B538" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C538" s="246" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D538" s="247"/>
       <c r="E538" s="246" t="s">
@@ -27609,7 +27661,7 @@
       </c>
       <c r="F538" s="246"/>
       <c r="G538" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H538" s="248"/>
       <c r="I538" s="209"/>
@@ -27625,10 +27677,10 @@
     <row r="539" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="233"/>
       <c r="B539" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C539" s="246" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D539" s="247" t="n">
         <v>44084</v>
@@ -27654,10 +27706,10 @@
     <row r="540" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="233"/>
       <c r="B540" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C540" s="246" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D540" s="247"/>
       <c r="E540" s="246" t="s">
@@ -27665,7 +27717,7 @@
       </c>
       <c r="F540" s="246"/>
       <c r="G540" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H540" s="248"/>
       <c r="I540" s="209"/>
@@ -27681,10 +27733,10 @@
     <row r="541" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="233"/>
       <c r="B541" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C541" s="246" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D541" s="247" t="n">
         <v>44084</v>
@@ -27710,10 +27762,10 @@
     <row r="542" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="233"/>
       <c r="B542" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C542" s="246" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D542" s="247" t="n">
         <v>44084</v>
@@ -27739,10 +27791,10 @@
     <row r="543" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="233"/>
       <c r="B543" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C543" s="246" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D543" s="247" t="n">
         <v>44085</v>
@@ -27768,10 +27820,10 @@
     <row r="544" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="233"/>
       <c r="B544" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C544" s="246" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D544" s="247"/>
       <c r="E544" s="246" t="s">
@@ -27779,7 +27831,7 @@
       </c>
       <c r="F544" s="246"/>
       <c r="G544" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H544" s="248"/>
       <c r="I544" s="209"/>
@@ -27795,10 +27847,10 @@
     <row r="545" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="233"/>
       <c r="B545" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C545" s="246" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D545" s="247" t="n">
         <v>44085</v>
@@ -27824,10 +27876,10 @@
     <row r="546" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="233"/>
       <c r="B546" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C546" s="246" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D546" s="247"/>
       <c r="E546" s="246" t="s">
@@ -27835,7 +27887,7 @@
       </c>
       <c r="F546" s="246"/>
       <c r="G546" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H546" s="248"/>
       <c r="I546" s="209"/>
@@ -27851,10 +27903,10 @@
     <row r="547" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="233"/>
       <c r="B547" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C547" s="246" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D547" s="247"/>
       <c r="E547" s="246" t="s">
@@ -27862,7 +27914,7 @@
       </c>
       <c r="F547" s="246"/>
       <c r="G547" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H547" s="248"/>
       <c r="I547" s="209"/>
@@ -27878,10 +27930,10 @@
     <row r="548" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="233"/>
       <c r="B548" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C548" s="246" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D548" s="247" t="n">
         <v>44085</v>
@@ -27907,10 +27959,10 @@
     <row r="549" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="233"/>
       <c r="B549" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C549" s="246" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D549" s="247" t="n">
         <v>44085</v>
@@ -27936,10 +27988,10 @@
     <row r="550" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="233"/>
       <c r="B550" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C550" s="246" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D550" s="247" t="n">
         <v>44085</v>
@@ -27965,10 +28017,10 @@
     <row r="551" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="233"/>
       <c r="B551" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C551" s="246" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D551" s="247"/>
       <c r="E551" s="246" t="s">
@@ -27976,7 +28028,7 @@
       </c>
       <c r="F551" s="246"/>
       <c r="G551" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H551" s="248"/>
       <c r="I551" s="209"/>
@@ -27992,10 +28044,10 @@
     <row r="552" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="233"/>
       <c r="B552" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C552" s="246" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D552" s="247" t="n">
         <v>44085</v>
@@ -28021,10 +28073,10 @@
     <row r="553" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="233"/>
       <c r="B553" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C553" s="246" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D553" s="247" t="n">
         <v>44088</v>
@@ -28050,10 +28102,10 @@
     <row r="554" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="233"/>
       <c r="B554" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C554" s="246" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D554" s="247" t="n">
         <v>44088</v>
@@ -28079,10 +28131,10 @@
     <row r="555" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="233"/>
       <c r="B555" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C555" s="246" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D555" s="247"/>
       <c r="E555" s="246" t="s">
@@ -28090,7 +28142,7 @@
       </c>
       <c r="F555" s="246"/>
       <c r="G555" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H555" s="248"/>
       <c r="I555" s="209"/>
@@ -28106,10 +28158,10 @@
     <row r="556" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="233"/>
       <c r="B556" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C556" s="246" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D556" s="247" t="n">
         <v>44088</v>
@@ -28135,10 +28187,10 @@
     <row r="557" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="233"/>
       <c r="B557" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C557" s="246" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D557" s="247" t="n">
         <v>44088</v>
@@ -28164,10 +28216,10 @@
     <row r="558" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="233"/>
       <c r="B558" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C558" s="246" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D558" s="247" t="n">
         <v>44088</v>
@@ -28193,10 +28245,10 @@
     <row r="559" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="233"/>
       <c r="B559" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C559" s="246" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D559" s="247" t="n">
         <v>44088</v>
@@ -28222,10 +28274,10 @@
     <row r="560" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="233"/>
       <c r="B560" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C560" s="246" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D560" s="247" t="n">
         <v>44088</v>
@@ -28251,10 +28303,10 @@
     <row r="561" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="233"/>
       <c r="B561" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C561" s="246" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D561" s="247" t="n">
         <v>44088</v>
@@ -28280,10 +28332,10 @@
     <row r="562" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="233"/>
       <c r="B562" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C562" s="246" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D562" s="247" t="n">
         <v>44089</v>
@@ -28309,10 +28361,10 @@
     <row r="563" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="233"/>
       <c r="B563" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C563" s="246" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D563" s="247" t="n">
         <v>44089</v>
@@ -28338,10 +28390,10 @@
     <row r="564" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="233"/>
       <c r="B564" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C564" s="246" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D564" s="247" t="n">
         <v>44089</v>
@@ -28367,10 +28419,10 @@
     <row r="565" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="233"/>
       <c r="B565" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C565" s="246" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D565" s="247" t="n">
         <v>44089</v>
@@ -28396,10 +28448,10 @@
     <row r="566" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="233"/>
       <c r="B566" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C566" s="246" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D566" s="247" t="n">
         <v>44089</v>
@@ -28425,10 +28477,10 @@
     <row r="567" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="233"/>
       <c r="B567" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C567" s="246" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D567" s="247" t="n">
         <v>44089</v>
@@ -28454,10 +28506,10 @@
     <row r="568" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="233"/>
       <c r="B568" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C568" s="246" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D568" s="247"/>
       <c r="E568" s="246" t="s">
@@ -28465,7 +28517,7 @@
       </c>
       <c r="F568" s="246"/>
       <c r="G568" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H568" s="248"/>
       <c r="I568" s="209"/>
@@ -28481,10 +28533,10 @@
     <row r="569" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="233"/>
       <c r="B569" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C569" s="246" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D569" s="247"/>
       <c r="E569" s="246" t="s">
@@ -28492,7 +28544,7 @@
       </c>
       <c r="F569" s="246"/>
       <c r="G569" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H569" s="248"/>
       <c r="I569" s="209"/>
@@ -28508,10 +28560,10 @@
     <row r="570" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="233"/>
       <c r="B570" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C570" s="246" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D570" s="247" t="n">
         <v>44092</v>
@@ -28537,10 +28589,10 @@
     <row r="571" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="233"/>
       <c r="B571" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C571" s="246" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D571" s="247" t="n">
         <v>44092</v>
@@ -28566,10 +28618,10 @@
     <row r="572" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="233"/>
       <c r="B572" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C572" s="246" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D572" s="247"/>
       <c r="E572" s="246" t="s">
@@ -28577,7 +28629,7 @@
       </c>
       <c r="F572" s="246"/>
       <c r="G572" s="246" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H572" s="248"/>
       <c r="I572" s="209"/>
@@ -28593,10 +28645,10 @@
     <row r="573" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="233"/>
       <c r="B573" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C573" s="246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D573" s="247"/>
       <c r="E573" s="246" t="s">
@@ -28604,7 +28656,7 @@
       </c>
       <c r="F573" s="246"/>
       <c r="G573" s="246" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H573" s="248"/>
       <c r="I573" s="209"/>
@@ -28620,10 +28672,10 @@
     <row r="574" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="233"/>
       <c r="B574" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C574" s="246" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D574" s="247" t="n">
         <v>44092</v>
@@ -28649,10 +28701,10 @@
     <row r="575" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="233"/>
       <c r="B575" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C575" s="246" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D575" s="247" t="n">
         <v>44092</v>
@@ -28678,10 +28730,10 @@
     <row r="576" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="233"/>
       <c r="B576" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C576" s="246" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D576" s="247"/>
       <c r="E576" s="246" t="s">
@@ -28689,7 +28741,7 @@
       </c>
       <c r="F576" s="246"/>
       <c r="G576" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H576" s="248"/>
       <c r="I576" s="209"/>
@@ -28705,10 +28757,10 @@
     <row r="577" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="233"/>
       <c r="B577" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C577" s="246" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D577" s="247" t="n">
         <v>44092</v>
@@ -28734,10 +28786,10 @@
     <row r="578" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="233"/>
       <c r="B578" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C578" s="246" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D578" s="247"/>
       <c r="E578" s="246" t="s">
@@ -28745,7 +28797,7 @@
       </c>
       <c r="F578" s="246"/>
       <c r="G578" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H578" s="248"/>
       <c r="I578" s="209"/>
@@ -28761,10 +28813,10 @@
     <row r="579" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="233"/>
       <c r="B579" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C579" s="246" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D579" s="247" t="n">
         <v>44092</v>
@@ -28790,10 +28842,10 @@
     <row r="580" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="233"/>
       <c r="B580" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C580" s="246" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D580" s="247" t="n">
         <v>44092</v>
@@ -28819,10 +28871,10 @@
     <row r="581" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="233"/>
       <c r="B581" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C581" s="246" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D581" s="247" t="n">
         <v>44092</v>
@@ -28848,10 +28900,10 @@
     <row r="582" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="233"/>
       <c r="B582" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C582" s="246" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D582" s="247" t="n">
         <v>44092</v>
@@ -28877,10 +28929,10 @@
     <row r="583" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="233"/>
       <c r="B583" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C583" s="246" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D583" s="247" t="n">
         <v>44092</v>
@@ -28906,10 +28958,10 @@
     <row r="584" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="233"/>
       <c r="B584" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C584" s="246" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D584" s="247" t="n">
         <v>44092</v>
@@ -28935,10 +28987,10 @@
     <row r="585" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="233"/>
       <c r="B585" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C585" s="246" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D585" s="247" t="n">
         <v>44092</v>
@@ -28964,10 +29016,10 @@
     <row r="586" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="233"/>
       <c r="B586" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C586" s="246" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D586" s="247"/>
       <c r="E586" s="246" t="s">
@@ -28975,7 +29027,7 @@
       </c>
       <c r="F586" s="246"/>
       <c r="G586" s="209" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H586" s="248"/>
       <c r="I586" s="209"/>
@@ -28991,10 +29043,10 @@
     <row r="587" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="203"/>
       <c r="B587" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C587" s="246" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D587" s="247" t="n">
         <v>44092</v>
@@ -29029,10 +29081,10 @@
     <row r="588" s="212" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="251"/>
       <c r="B588" s="246" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C588" s="246" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D588" s="247" t="n">
         <v>44092</v>
@@ -29146,18 +29198,18 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="254" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="254" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29165,7 +29217,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="254" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29173,7 +29225,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="254" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29181,7 +29233,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="254" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29189,7 +29241,7 @@
         <v>81</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -29210,11 +29262,11 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -29227,7 +29279,7 @@
         <v>143</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="L1" s="255"/>
     </row>
@@ -29239,7 +29291,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29250,7 +29302,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29261,7 +29313,7 @@
         <v>231</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29272,7 +29324,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29283,7 +29335,7 @@
         <v>210</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29294,7 +29346,7 @@
         <v>342</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29305,7 +29357,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29316,7 +29368,7 @@
         <v>266</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29327,7 +29379,7 @@
         <v>152</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29338,7 +29390,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29349,7 +29401,7 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29360,7 +29412,7 @@
         <v>120</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29371,7 +29423,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29382,7 +29434,7 @@
         <v>380</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29393,7 +29445,7 @@
         <v>202</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29404,7 +29456,7 @@
         <v>228</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29415,7 +29467,7 @@
         <v>280</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29426,7 +29478,7 @@
         <v>169</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29437,7 +29489,7 @@
         <v>297</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29448,7 +29500,7 @@
         <v>453</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29459,7 +29511,7 @@
         <v>362</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -29480,35 +29532,35 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29519,7 +29571,7 @@
         <v>290</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29530,7 +29582,7 @@
         <v>324</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29541,7 +29593,7 @@
         <v>471</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29552,7 +29604,7 @@
         <v>330</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29563,7 +29615,7 @@
         <v>419</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29574,7 +29626,7 @@
         <v>213</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29585,7 +29637,7 @@
         <v>362</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29596,7 +29648,7 @@
         <v>560</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29607,7 +29659,7 @@
         <v>289</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
